--- a/BackTest/2019-10-19 BackTest LBA.xlsx
+++ b/BackTest/2019-10-19 BackTest LBA.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.5999999999999979</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-60</v>
+      </c>
       <c r="L12" t="n">
         <v>13.40000000000001</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.5999999999999979</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-50</v>
+      </c>
       <c r="L13" t="n">
         <v>13.37000000000001</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.6999999999999993</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-33.33333333333373</v>
+      </c>
       <c r="L14" t="n">
         <v>13.34000000000001</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.7999999999999989</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-100</v>
+      </c>
       <c r="L15" t="n">
         <v>13.32</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.8999999999999986</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-100</v>
+      </c>
       <c r="L16" t="n">
         <v>13.28</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>1.099999999999998</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-33.33333333333353</v>
+      </c>
       <c r="L17" t="n">
         <v>13.26</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>1.199999999999999</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-14.28571428571421</v>
+      </c>
       <c r="L18" t="n">
         <v>13.25</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>1.300000000000001</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-25.00000000000006</v>
+      </c>
       <c r="L19" t="n">
         <v>13.23</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>1.400000000000002</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
       <c r="L20" t="n">
         <v>13.22</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>1.600000000000003</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-20</v>
+      </c>
       <c r="L21" t="n">
         <v>13.2</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>1.600000000000003</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-20</v>
+      </c>
       <c r="L22" t="n">
         <v>13.18</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>1.700000000000003</v>
       </c>
       <c r="K23" t="n">
-        <v>-37.49999999999991</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L23" t="n">
         <v>13.15</v>
@@ -1466,7 +1488,7 @@
         <v>1.800000000000002</v>
       </c>
       <c r="K24" t="n">
-        <v>-24.99999999999997</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>13.14</v>
@@ -1515,7 +1537,7 @@
         <v>1.900000000000002</v>
       </c>
       <c r="K25" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>13.13</v>
@@ -1564,7 +1586,7 @@
         <v>1.900000000000002</v>
       </c>
       <c r="K26" t="n">
-        <v>-28.57142857142851</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L26" t="n">
         <v>13.13</v>
@@ -1613,7 +1635,7 @@
         <v>2.000000000000002</v>
       </c>
       <c r="K27" t="n">
-        <v>-20</v>
+        <v>-25.00000000000006</v>
       </c>
       <c r="L27" t="n">
         <v>13.12</v>
@@ -1662,7 +1684,7 @@
         <v>2.100000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>-24.99999999999997</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L28" t="n">
         <v>13.09</v>
@@ -1711,7 +1733,7 @@
         <v>2.200000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>-29.41176470588231</v>
+        <v>-50.00000000000011</v>
       </c>
       <c r="L29" t="n">
         <v>13.06</v>
@@ -1760,7 +1782,7 @@
         <v>2.300000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>-33.33333333333326</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L30" t="n">
         <v>13.01</v>
@@ -1809,7 +1831,7 @@
         <v>2.4</v>
       </c>
       <c r="K31" t="n">
-        <v>-22.22222222222221</v>
+        <v>-25</v>
       </c>
       <c r="L31" t="n">
         <v>12.99</v>
@@ -1860,7 +1882,7 @@
         <v>2.4</v>
       </c>
       <c r="K32" t="n">
-        <v>-22.22222222222221</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L32" t="n">
         <v>12.97</v>
@@ -1911,7 +1933,7 @@
         <v>2.4</v>
       </c>
       <c r="K33" t="n">
-        <v>-22.22222222222221</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L33" t="n">
         <v>12.96</v>
@@ -1962,7 +1984,7 @@
         <v>2.4</v>
       </c>
       <c r="K34" t="n">
-        <v>-17.64705882352934</v>
+        <v>-20</v>
       </c>
       <c r="L34" t="n">
         <v>12.94</v>
@@ -2013,7 +2035,7 @@
         <v>2.4</v>
       </c>
       <c r="K35" t="n">
-        <v>-12.49999999999994</v>
+        <v>-20</v>
       </c>
       <c r="L35" t="n">
         <v>12.93</v>
@@ -2064,7 +2086,7 @@
         <v>2.4</v>
       </c>
       <c r="K36" t="n">
-        <v>-6.666666666666635</v>
+        <v>-50</v>
       </c>
       <c r="L36" t="n">
         <v>12.92000000000001</v>
@@ -2115,7 +2137,7 @@
         <v>2.5</v>
       </c>
       <c r="K37" t="n">
-        <v>-28.57142857142843</v>
+        <v>-50</v>
       </c>
       <c r="L37" t="n">
         <v>12.89000000000001</v>
@@ -2166,7 +2188,7 @@
         <v>2.6</v>
       </c>
       <c r="K38" t="n">
-        <v>-28.57142857142859</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>12.88000000000001</v>
@@ -2217,7 +2239,7 @@
         <v>2.699999999999999</v>
       </c>
       <c r="K39" t="n">
-        <v>-14.28571428571425</v>
+        <v>50</v>
       </c>
       <c r="L39" t="n">
         <v>12.89000000000001</v>
@@ -2268,7 +2290,7 @@
         <v>2.699999999999999</v>
       </c>
       <c r="K40" t="n">
-        <v>-23.07692307692318</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L40" t="n">
         <v>12.91000000000001</v>
@@ -2319,7 +2341,7 @@
         <v>3</v>
       </c>
       <c r="K41" t="n">
-        <v>14.28571428571439</v>
+        <v>66.66666666666676</v>
       </c>
       <c r="L41" t="n">
         <v>12.95000000000001</v>
@@ -2370,7 +2392,7 @@
         <v>3.100000000000001</v>
       </c>
       <c r="K42" t="n">
-        <v>6.666666666666651</v>
+        <v>42.85714285714264</v>
       </c>
       <c r="L42" t="n">
         <v>12.98</v>
@@ -2421,7 +2443,7 @@
         <v>3.200000000000001</v>
       </c>
       <c r="K43" t="n">
-        <v>6.666666666666651</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L43" t="n">
         <v>13</v>
@@ -2472,7 +2494,7 @@
         <v>3.200000000000001</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L44" t="n">
         <v>13.02</v>
@@ -2523,7 +2545,7 @@
         <v>3.200000000000001</v>
       </c>
       <c r="K45" t="n">
-        <v>7.692307692307672</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L45" t="n">
         <v>13.04</v>
@@ -2574,7 +2596,7 @@
         <v>3.200000000000001</v>
       </c>
       <c r="K46" t="n">
-        <v>7.692307692307672</v>
+        <v>42.85714285714264</v>
       </c>
       <c r="L46" t="n">
         <v>13.06</v>
@@ -2625,7 +2647,7 @@
         <v>3.200000000000001</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L47" t="n">
         <v>13.09</v>
@@ -2676,7 +2698,7 @@
         <v>3.300000000000001</v>
       </c>
       <c r="K48" t="n">
-        <v>16.66666666666662</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L48" t="n">
         <v>13.12</v>
@@ -2727,7 +2749,7 @@
         <v>3.300000000000001</v>
       </c>
       <c r="K49" t="n">
-        <v>27.27272727272718</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L49" t="n">
         <v>13.14</v>
@@ -2778,7 +2800,7 @@
         <v>3.500000000000002</v>
       </c>
       <c r="K50" t="n">
-        <v>49.99999999999993</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L50" t="n">
         <v>13.18</v>
@@ -2829,7 +2851,7 @@
         <v>3.700000000000001</v>
       </c>
       <c r="K51" t="n">
-        <v>53.84615384615377</v>
+        <v>66.66666666666676</v>
       </c>
       <c r="L51" t="n">
         <v>13.20999999999999</v>
@@ -2880,7 +2902,7 @@
         <v>3.9</v>
       </c>
       <c r="K52" t="n">
-        <v>33.33333333333333</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L52" t="n">
         <v>13.23</v>
@@ -2931,7 +2953,7 @@
         <v>3.9</v>
       </c>
       <c r="K53" t="n">
-        <v>33.33333333333333</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L53" t="n">
         <v>13.26</v>
@@ -2982,7 +3004,7 @@
         <v>4</v>
       </c>
       <c r="K54" t="n">
-        <v>37.49999999999999</v>
+        <v>50.00000000000011</v>
       </c>
       <c r="L54" t="n">
         <v>13.3</v>
@@ -3033,7 +3055,7 @@
         <v>4.1</v>
       </c>
       <c r="K55" t="n">
-        <v>29.41176470588237</v>
+        <v>33.33333333333346</v>
       </c>
       <c r="L55" t="n">
         <v>13.33</v>
@@ -3084,7 +3106,7 @@
         <v>4.199999999999999</v>
       </c>
       <c r="K56" t="n">
-        <v>22.22222222222225</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L56" t="n">
         <v>13.35</v>
@@ -3135,7 +3157,7 @@
         <v>4.299999999999999</v>
       </c>
       <c r="K57" t="n">
-        <v>33.33333333333333</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L57" t="n">
         <v>13.38</v>
@@ -3186,7 +3208,7 @@
         <v>4.5</v>
       </c>
       <c r="K58" t="n">
-        <v>15.78947368421047</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
         <v>13.38</v>
@@ -3237,7 +3259,7 @@
         <v>4.600000000000001</v>
       </c>
       <c r="K59" t="n">
-        <v>15.78947368421055</v>
+        <v>-9.090909090909062</v>
       </c>
       <c r="L59" t="n">
         <v>13.39</v>
@@ -3288,7 +3310,7 @@
         <v>4.600000000000001</v>
       </c>
       <c r="K60" t="n">
-        <v>15.78947368421055</v>
+        <v>-33.3333333333332</v>
       </c>
       <c r="L60" t="n">
         <v>13.38</v>
@@ -3339,7 +3361,7 @@
         <v>4.600000000000001</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L61" t="n">
         <v>13.35</v>
@@ -3390,7 +3412,7 @@
         <v>4.600000000000001</v>
       </c>
       <c r="K62" t="n">
-        <v>6.666666666666761</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L62" t="n">
         <v>13.34000000000001</v>
@@ -3441,7 +3463,7 @@
         <v>4.600000000000001</v>
       </c>
       <c r="K63" t="n">
-        <v>14.28571428571436</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L63" t="n">
         <v>13.33000000000001</v>
@@ -3492,7 +3514,7 @@
         <v>4.600000000000001</v>
       </c>
       <c r="K64" t="n">
-        <v>14.28571428571436</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L64" t="n">
         <v>13.31000000000001</v>
@@ -3543,7 +3565,7 @@
         <v>4.700000000000003</v>
       </c>
       <c r="K65" t="n">
-        <v>6.666666666666635</v>
+        <v>-20.00000000000014</v>
       </c>
       <c r="L65" t="n">
         <v>13.29000000000001</v>
@@ -3594,7 +3616,7 @@
         <v>4.700000000000003</v>
       </c>
       <c r="K66" t="n">
-        <v>6.666666666666635</v>
+        <v>-49.99999999999978</v>
       </c>
       <c r="L66" t="n">
         <v>13.28</v>
@@ -3645,7 +3667,7 @@
         <v>4.700000000000003</v>
       </c>
       <c r="K67" t="n">
-        <v>6.666666666666635</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>13.26</v>
@@ -3696,7 +3718,7 @@
         <v>4.700000000000003</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L68" t="n">
         <v>13.26</v>
@@ -3747,7 +3769,7 @@
         <v>4.800000000000002</v>
       </c>
       <c r="K69" t="n">
-        <v>-6.666666666666635</v>
+        <v>-100</v>
       </c>
       <c r="L69" t="n">
         <v>13.24</v>
@@ -3798,7 +3820,7 @@
         <v>4.900000000000002</v>
       </c>
       <c r="K70" t="n">
-        <v>-14.28571428571436</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L70" t="n">
         <v>13.23</v>
@@ -3849,7 +3871,7 @@
         <v>5.000000000000002</v>
       </c>
       <c r="K71" t="n">
-        <v>-38.46153846153844</v>
+        <v>-50.00000000000022</v>
       </c>
       <c r="L71" t="n">
         <v>13.21</v>
@@ -3900,7 +3922,7 @@
         <v>5.000000000000002</v>
       </c>
       <c r="K72" t="n">
-        <v>-27.27272727272731</v>
+        <v>-50.00000000000022</v>
       </c>
       <c r="L72" t="n">
         <v>13.18999999999999</v>
@@ -3951,7 +3973,7 @@
         <v>5.100000000000001</v>
       </c>
       <c r="K73" t="n">
-        <v>-33.33333333333333</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L73" t="n">
         <v>13.15999999999999</v>
@@ -4002,7 +4024,7 @@
         <v>5.300000000000001</v>
       </c>
       <c r="K74" t="n">
-        <v>-23.07692307692312</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
         <v>13.14999999999999</v>
@@ -4053,7 +4075,7 @@
         <v>5.4</v>
       </c>
       <c r="K75" t="n">
-        <v>-23.07692307692312</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L75" t="n">
         <v>13.13999999999999</v>
@@ -4104,7 +4126,7 @@
         <v>5.5</v>
       </c>
       <c r="K76" t="n">
-        <v>-7.692307692307796</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
         <v>13.13999999999999</v>
@@ -4155,7 +4177,7 @@
         <v>5.699999999999999</v>
       </c>
       <c r="K77" t="n">
-        <v>-28.57142857142859</v>
+        <v>-20</v>
       </c>
       <c r="L77" t="n">
         <v>13.11999999999999</v>
@@ -4206,7 +4228,7 @@
         <v>5.799999999999999</v>
       </c>
       <c r="K78" t="n">
-        <v>-7.692307692307672</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>13.10999999999999</v>
@@ -4257,7 +4279,7 @@
         <v>5.899999999999999</v>
       </c>
       <c r="K79" t="n">
-        <v>-23.07692307692318</v>
+        <v>-20</v>
       </c>
       <c r="L79" t="n">
         <v>13.09999999999999</v>
@@ -4308,7 +4330,7 @@
         <v>5.899999999999999</v>
       </c>
       <c r="K80" t="n">
-        <v>-23.07692307692318</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L80" t="n">
         <v>13.07999999999999</v>
@@ -4359,7 +4381,7 @@
         <v>5.899999999999999</v>
       </c>
       <c r="K81" t="n">
-        <v>-23.07692307692318</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L81" t="n">
         <v>13.07</v>
@@ -4410,7 +4432,7 @@
         <v>5.899999999999999</v>
       </c>
       <c r="K82" t="n">
-        <v>-23.07692307692318</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
         <v>13.06</v>
@@ -4461,7 +4483,7 @@
         <v>6.099999999999998</v>
       </c>
       <c r="K83" t="n">
-        <v>-6.666666666666778</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
         <v>13.07999999999999</v>
@@ -4512,7 +4534,7 @@
         <v>6.199999999999998</v>
       </c>
       <c r="K84" t="n">
-        <v>-12.5000000000001</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
         <v>13.07</v>
@@ -4563,7 +4585,7 @@
         <v>6.199999999999998</v>
       </c>
       <c r="K85" t="n">
-        <v>-6.666666666666667</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L85" t="n">
         <v>13.07</v>
@@ -4614,7 +4636,7 @@
         <v>6.299999999999997</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L86" t="n">
         <v>13.07</v>
@@ -4665,7 +4687,7 @@
         <v>6.299999999999997</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L87" t="n">
         <v>13.08999999999999</v>
@@ -4716,7 +4738,7 @@
         <v>6.299999999999997</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L88" t="n">
         <v>13.09999999999999</v>
@@ -4767,7 +4789,7 @@
         <v>6.299999999999997</v>
       </c>
       <c r="K89" t="n">
-        <v>6.666666666666667</v>
+        <v>50</v>
       </c>
       <c r="L89" t="n">
         <v>13.11999999999999</v>
@@ -4818,7 +4840,7 @@
         <v>6.499999999999998</v>
       </c>
       <c r="K90" t="n">
-        <v>12.5000000000001</v>
+        <v>66.66666666666676</v>
       </c>
       <c r="L90" t="n">
         <v>13.15999999999999</v>
@@ -4869,7 +4891,7 @@
         <v>6.499999999999998</v>
       </c>
       <c r="K91" t="n">
-        <v>20.0000000000001</v>
+        <v>66.66666666666676</v>
       </c>
       <c r="L91" t="n">
         <v>13.19999999999999</v>
@@ -4920,7 +4942,7 @@
         <v>6.499999999999998</v>
       </c>
       <c r="K92" t="n">
-        <v>20.0000000000001</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L92" t="n">
         <v>13.23999999999999</v>
@@ -4971,7 +4993,7 @@
         <v>6.699999999999999</v>
       </c>
       <c r="K93" t="n">
-        <v>12.49999999999997</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L93" t="n">
         <v>13.23999999999999</v>
@@ -5022,7 +5044,7 @@
         <v>6.699999999999999</v>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L94" t="n">
         <v>13.24999999999999</v>
@@ -5073,7 +5095,7 @@
         <v>6.699999999999999</v>
       </c>
       <c r="K95" t="n">
-        <v>7.692307692307672</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
         <v>13.25999999999999</v>
@@ -5124,7 +5146,7 @@
         <v>6.799999999999999</v>
       </c>
       <c r="K96" t="n">
-        <v>-7.692307692307672</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L96" t="n">
         <v>13.24999999999999</v>
@@ -5175,7 +5197,7 @@
         <v>6.799999999999999</v>
       </c>
       <c r="K97" t="n">
-        <v>9.090909090909062</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L97" t="n">
         <v>13.23999999999999</v>
@@ -5226,7 +5248,7 @@
         <v>6.799999999999999</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L98" t="n">
         <v>13.23</v>
@@ -5277,7 +5299,7 @@
         <v>6.799999999999999</v>
       </c>
       <c r="K99" t="n">
-        <v>11.11111111111107</v>
+        <v>-100</v>
       </c>
       <c r="L99" t="n">
         <v>13.22</v>
@@ -5328,7 +5350,7 @@
         <v>6.799999999999999</v>
       </c>
       <c r="K100" t="n">
-        <v>11.11111111111107</v>
+        <v>-100</v>
       </c>
       <c r="L100" t="n">
         <v>13.18999999999999</v>
@@ -5379,7 +5401,7 @@
         <v>6.799999999999999</v>
       </c>
       <c r="K101" t="n">
-        <v>11.11111111111107</v>
+        <v>-100</v>
       </c>
       <c r="L101" t="n">
         <v>13.15999999999999</v>
@@ -5430,7 +5452,7 @@
         <v>6.899999999999999</v>
       </c>
       <c r="K102" t="n">
-        <v>19.99999999999993</v>
+        <v>0</v>
       </c>
       <c r="L102" t="n">
         <v>13.13999999999999</v>
@@ -5481,7 +5503,7 @@
         <v>6.999999999999998</v>
       </c>
       <c r="K103" t="n">
-        <v>-11.11111111111107</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L103" t="n">
         <v>13.12999999999999</v>
@@ -5532,7 +5554,7 @@
         <v>7.099999999999998</v>
       </c>
       <c r="K104" t="n">
-        <v>11.11111111111107</v>
+        <v>0</v>
       </c>
       <c r="L104" t="n">
         <v>13.12999999999999</v>
@@ -5634,7 +5656,7 @@
         <v>7.199999999999998</v>
       </c>
       <c r="K106" t="n">
-        <v>-11.11111111111107</v>
+        <v>0</v>
       </c>
       <c r="L106" t="n">
         <v>13.11999999999999</v>
@@ -5685,7 +5707,7 @@
         <v>7.299999999999997</v>
       </c>
       <c r="K107" t="n">
-        <v>-19.99999999999993</v>
+        <v>-20</v>
       </c>
       <c r="L107" t="n">
         <v>13.10999999999999</v>
@@ -5736,7 +5758,7 @@
         <v>7.399999999999997</v>
       </c>
       <c r="K108" t="n">
-        <v>-9.090909090909062</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
         <v>13.10999999999999</v>
@@ -5787,7 +5809,7 @@
         <v>7.399999999999997</v>
       </c>
       <c r="K109" t="n">
-        <v>-9.090909090909062</v>
+        <v>0</v>
       </c>
       <c r="L109" t="n">
         <v>13.10999999999999</v>
@@ -5838,7 +5860,7 @@
         <v>7.399999999999997</v>
       </c>
       <c r="K110" t="n">
-        <v>-33.33333333333346</v>
+        <v>0</v>
       </c>
       <c r="L110" t="n">
         <v>13.10999999999999</v>
@@ -5889,7 +5911,7 @@
         <v>7.399999999999997</v>
       </c>
       <c r="K111" t="n">
-        <v>-33.33333333333346</v>
+        <v>-20</v>
       </c>
       <c r="L111" t="n">
         <v>13.10999999999999</v>
@@ -5940,7 +5962,7 @@
         <v>7.399999999999997</v>
       </c>
       <c r="K112" t="n">
-        <v>-33.33333333333346</v>
+        <v>0</v>
       </c>
       <c r="L112" t="n">
         <v>13.09999999999999</v>
@@ -5991,7 +6013,7 @@
         <v>7.399999999999997</v>
       </c>
       <c r="K113" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L113" t="n">
         <v>13.09999999999999</v>
@@ -6042,7 +6064,7 @@
         <v>7.399999999999997</v>
       </c>
       <c r="K114" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L114" t="n">
         <v>13.08999999999999</v>
@@ -6093,7 +6115,7 @@
         <v>7.399999999999997</v>
       </c>
       <c r="K115" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L115" t="n">
         <v>13.08999999999999</v>
@@ -6144,7 +6166,7 @@
         <v>7.399999999999997</v>
       </c>
       <c r="K116" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L116" t="n">
         <v>13.08999999999999</v>
@@ -6195,7 +6217,7 @@
         <v>7.499999999999996</v>
       </c>
       <c r="K117" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L117" t="n">
         <v>13.08999999999999</v>
@@ -6450,7 +6472,7 @@
         <v>7.599999999999996</v>
       </c>
       <c r="K122" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L122" t="n">
         <v>13.08999999999999</v>
@@ -6552,7 +6574,7 @@
         <v>7.699999999999996</v>
       </c>
       <c r="K124" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L124" t="n">
         <v>13.09999999999999</v>
@@ -6603,7 +6625,7 @@
         <v>7.699999999999996</v>
       </c>
       <c r="K125" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L125" t="n">
         <v>13.10999999999999</v>
@@ -6654,7 +6676,7 @@
         <v>7.899999999999995</v>
       </c>
       <c r="K126" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L126" t="n">
         <v>13.09999999999999</v>
@@ -6705,7 +6727,7 @@
         <v>7.899999999999995</v>
       </c>
       <c r="K127" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L127" t="n">
         <v>13.09999999999999</v>
@@ -6756,7 +6778,7 @@
         <v>7.999999999999995</v>
       </c>
       <c r="K128" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L128" t="n">
         <v>13.07999999999999</v>
@@ -6807,7 +6829,7 @@
         <v>8.099999999999994</v>
       </c>
       <c r="K129" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L129" t="n">
         <v>13.07</v>
@@ -6909,7 +6931,7 @@
         <v>8.299999999999994</v>
       </c>
       <c r="K131" t="n">
-        <v>-11.11111111111111</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L131" t="n">
         <v>13.06</v>
@@ -6960,7 +6982,7 @@
         <v>8.299999999999994</v>
       </c>
       <c r="K132" t="n">
-        <v>-11.11111111111111</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L132" t="n">
         <v>13.05</v>
@@ -7011,7 +7033,7 @@
         <v>8.299999999999994</v>
       </c>
       <c r="K133" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L133" t="n">
         <v>13.04</v>
@@ -7062,7 +7084,7 @@
         <v>8.299999999999994</v>
       </c>
       <c r="K134" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L134" t="n">
         <v>13.02</v>
@@ -7164,7 +7186,7 @@
         <v>8.499999999999993</v>
       </c>
       <c r="K136" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L136" t="n">
         <v>12.99</v>
@@ -7215,7 +7237,7 @@
         <v>8.599999999999993</v>
       </c>
       <c r="K137" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L137" t="n">
         <v>12.98</v>
@@ -7266,7 +7288,7 @@
         <v>8.699999999999992</v>
       </c>
       <c r="K138" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L138" t="n">
         <v>12.99</v>
@@ -7317,7 +7339,7 @@
         <v>8.699999999999992</v>
       </c>
       <c r="K139" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L139" t="n">
         <v>12.99</v>
@@ -7368,7 +7390,7 @@
         <v>8.799999999999992</v>
       </c>
       <c r="K140" t="n">
-        <v>-16.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L140" t="n">
         <v>12.97</v>
@@ -7419,7 +7441,7 @@
         <v>8.799999999999992</v>
       </c>
       <c r="K141" t="n">
-        <v>-16.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L141" t="n">
         <v>12.96</v>
@@ -7470,7 +7492,7 @@
         <v>8.799999999999992</v>
       </c>
       <c r="K142" t="n">
-        <v>-16.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L142" t="n">
         <v>12.95</v>
@@ -7521,7 +7543,7 @@
         <v>9.199999999999992</v>
       </c>
       <c r="K143" t="n">
-        <v>12.5000000000001</v>
+        <v>33.33333333333346</v>
       </c>
       <c r="L143" t="n">
         <v>12.98</v>
@@ -7572,7 +7594,7 @@
         <v>9.299999999999994</v>
       </c>
       <c r="K144" t="n">
-        <v>0</v>
+        <v>33.3333333333332</v>
       </c>
       <c r="L144" t="n">
         <v>13</v>
@@ -7623,7 +7645,7 @@
         <v>9.399999999999993</v>
       </c>
       <c r="K145" t="n">
-        <v>-5.882352941176458</v>
+        <v>11.11111111111107</v>
       </c>
       <c r="L145" t="n">
         <v>13.02</v>
@@ -7674,7 +7696,7 @@
         <v>9.499999999999993</v>
       </c>
       <c r="K146" t="n">
-        <v>12.49999999999997</v>
+        <v>33.3333333333332</v>
       </c>
       <c r="L146" t="n">
         <v>13.04</v>
@@ -7725,7 +7747,7 @@
         <v>9.499999999999993</v>
       </c>
       <c r="K147" t="n">
-        <v>12.49999999999997</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L147" t="n">
         <v>13.07</v>
@@ -7776,7 +7798,7 @@
         <v>9.499999999999993</v>
       </c>
       <c r="K148" t="n">
-        <v>19.99999999999995</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L148" t="n">
         <v>13.09</v>
@@ -7827,7 +7849,7 @@
         <v>9.599999999999993</v>
       </c>
       <c r="K149" t="n">
-        <v>6.666666666666651</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L149" t="n">
         <v>13.1</v>
@@ -7878,7 +7900,7 @@
         <v>9.699999999999992</v>
       </c>
       <c r="K150" t="n">
-        <v>6.666666666666651</v>
+        <v>33.3333333333332</v>
       </c>
       <c r="L150" t="n">
         <v>13.13</v>
@@ -7929,7 +7951,7 @@
         <v>9.799999999999992</v>
       </c>
       <c r="K151" t="n">
-        <v>6.666666666666651</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L151" t="n">
         <v>13.15</v>
@@ -7980,7 +8002,7 @@
         <v>9.899999999999991</v>
       </c>
       <c r="K152" t="n">
-        <v>0</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L152" t="n">
         <v>13.15999999999999</v>
@@ -8031,7 +8053,7 @@
         <v>9.899999999999991</v>
       </c>
       <c r="K153" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L153" t="n">
         <v>13.12999999999999</v>
@@ -8082,7 +8104,7 @@
         <v>9.899999999999991</v>
       </c>
       <c r="K154" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L154" t="n">
         <v>13.10999999999999</v>
@@ -8133,7 +8155,7 @@
         <v>9.999999999999991</v>
       </c>
       <c r="K155" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="L155" t="n">
         <v>13.08999999999999</v>
@@ -8184,7 +8206,7 @@
         <v>9.999999999999991</v>
       </c>
       <c r="K156" t="n">
-        <v>-6.666666666666651</v>
+        <v>-60</v>
       </c>
       <c r="L156" t="n">
         <v>13.06</v>
@@ -8235,7 +8257,7 @@
         <v>9.999999999999991</v>
       </c>
       <c r="K157" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="L157" t="n">
         <v>13.03</v>
@@ -8286,7 +8308,7 @@
         <v>10.09999999999999</v>
       </c>
       <c r="K158" t="n">
-        <v>-14.28571428571425</v>
+        <v>-60</v>
       </c>
       <c r="L158" t="n">
         <v>12.99</v>
@@ -8337,7 +8359,7 @@
         <v>10.19999999999999</v>
       </c>
       <c r="K159" t="n">
-        <v>-6.666666666666651</v>
+        <v>-60</v>
       </c>
       <c r="L159" t="n">
         <v>12.97</v>
@@ -8388,7 +8410,7 @@
         <v>10.19999999999999</v>
       </c>
       <c r="K160" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L160" t="n">
         <v>12.94</v>
@@ -8439,7 +8461,7 @@
         <v>10.19999999999999</v>
       </c>
       <c r="K161" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L161" t="n">
         <v>12.92000000000001</v>
@@ -8490,7 +8512,7 @@
         <v>10.39999999999999</v>
       </c>
       <c r="K162" t="n">
-        <v>-12.50000000000007</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L162" t="n">
         <v>12.89</v>
@@ -8541,7 +8563,7 @@
         <v>10.39999999999999</v>
       </c>
       <c r="K163" t="n">
-        <v>-50.00000000000014</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L163" t="n">
         <v>12.86</v>
@@ -8592,7 +8614,7 @@
         <v>10.49999999999999</v>
       </c>
       <c r="K164" t="n">
-        <v>-50.00000000000008</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L164" t="n">
         <v>12.82</v>
@@ -8643,7 +8665,7 @@
         <v>10.49999999999999</v>
       </c>
       <c r="K165" t="n">
-        <v>-45.45454545454554</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L165" t="n">
         <v>12.79</v>
@@ -8694,7 +8716,7 @@
         <v>10.59999999999999</v>
       </c>
       <c r="K166" t="n">
-        <v>-45.45454545454554</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L166" t="n">
         <v>12.77</v>
@@ -8745,7 +8767,7 @@
         <v>10.69999999999999</v>
       </c>
       <c r="K167" t="n">
-        <v>-50.00000000000008</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L167" t="n">
         <v>12.74</v>
@@ -8796,7 +8818,7 @@
         <v>10.79999999999999</v>
       </c>
       <c r="K168" t="n">
-        <v>-38.46153846153855</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L168" t="n">
         <v>12.73</v>
@@ -8847,7 +8869,7 @@
         <v>10.79999999999999</v>
       </c>
       <c r="K169" t="n">
-        <v>-33.33333333333343</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L169" t="n">
         <v>12.71</v>
@@ -8898,7 +8920,7 @@
         <v>10.79999999999999</v>
       </c>
       <c r="K170" t="n">
-        <v>-45.45454545454554</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L170" t="n">
         <v>12.68999999999999</v>
@@ -8949,7 +8971,7 @@
         <v>10.89999999999999</v>
       </c>
       <c r="K171" t="n">
-        <v>-45.45454545454554</v>
+        <v>-20</v>
       </c>
       <c r="L171" t="n">
         <v>12.65999999999999</v>
@@ -9000,7 +9022,7 @@
         <v>10.89999999999999</v>
       </c>
       <c r="K172" t="n">
-        <v>-40.00000000000011</v>
+        <v>-20</v>
       </c>
       <c r="L172" t="n">
         <v>12.64999999999999</v>
@@ -9051,7 +9073,7 @@
         <v>10.99999999999999</v>
       </c>
       <c r="K173" t="n">
-        <v>-27.27272727272739</v>
+        <v>20</v>
       </c>
       <c r="L173" t="n">
         <v>12.64999999999999</v>
@@ -9102,7 +9124,7 @@
         <v>11.09999999999999</v>
       </c>
       <c r="K174" t="n">
-        <v>-33.33333333333343</v>
+        <v>0</v>
       </c>
       <c r="L174" t="n">
         <v>12.65</v>
@@ -9153,7 +9175,7 @@
         <v>11.19999999999999</v>
       </c>
       <c r="K175" t="n">
-        <v>-16.66666666666679</v>
+        <v>0</v>
       </c>
       <c r="L175" t="n">
         <v>12.65999999999999</v>
@@ -9204,7 +9226,7 @@
         <v>11.19999999999999</v>
       </c>
       <c r="K176" t="n">
-        <v>-16.66666666666679</v>
+        <v>20</v>
       </c>
       <c r="L176" t="n">
         <v>12.65999999999999</v>
@@ -9255,7 +9277,7 @@
         <v>11.29999999999999</v>
       </c>
       <c r="K177" t="n">
-        <v>-23.07692307692318</v>
+        <v>-20</v>
       </c>
       <c r="L177" t="n">
         <v>12.65999999999999</v>
@@ -9306,7 +9328,7 @@
         <v>11.39999999999999</v>
       </c>
       <c r="K178" t="n">
-        <v>-7.692307692307819</v>
+        <v>0</v>
       </c>
       <c r="L178" t="n">
         <v>12.65999999999999</v>
@@ -9357,7 +9379,7 @@
         <v>11.49999999999999</v>
       </c>
       <c r="K179" t="n">
-        <v>-23.07692307692318</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L179" t="n">
         <v>12.64999999999999</v>
@@ -9408,7 +9430,7 @@
         <v>11.59999999999999</v>
       </c>
       <c r="K180" t="n">
-        <v>-28.57142857142867</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L180" t="n">
         <v>12.62999999999999</v>
@@ -9459,7 +9481,7 @@
         <v>11.69999999999999</v>
       </c>
       <c r="K181" t="n">
-        <v>-20.0000000000001</v>
+        <v>0</v>
       </c>
       <c r="L181" t="n">
         <v>12.63</v>
@@ -9510,7 +9532,7 @@
         <v>11.79999999999999</v>
       </c>
       <c r="K182" t="n">
-        <v>-14.28571428571428</v>
+        <v>-25</v>
       </c>
       <c r="L182" t="n">
         <v>12.62</v>
@@ -9612,7 +9634,7 @@
         <v>11.89999999999999</v>
       </c>
       <c r="K184" t="n">
-        <v>-14.28571428571428</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L184" t="n">
         <v>12.57999999999999</v>
@@ -9663,7 +9685,7 @@
         <v>11.89999999999999</v>
       </c>
       <c r="K185" t="n">
-        <v>-14.28571428571428</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L185" t="n">
         <v>12.55</v>
@@ -9714,7 +9736,7 @@
         <v>11.89999999999999</v>
       </c>
       <c r="K186" t="n">
-        <v>-23.07692307692308</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L186" t="n">
         <v>12.51999999999999</v>
@@ -9765,7 +9787,7 @@
         <v>12.09999999999999</v>
       </c>
       <c r="K187" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L187" t="n">
         <v>12.52</v>
@@ -9867,7 +9889,7 @@
         <v>12.29999999999998</v>
       </c>
       <c r="K189" t="n">
-        <v>-20</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L189" t="n">
         <v>12.48</v>
@@ -9918,7 +9940,7 @@
         <v>12.39999999999998</v>
       </c>
       <c r="K190" t="n">
-        <v>-25</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L190" t="n">
         <v>12.46</v>
@@ -9969,7 +9991,7 @@
         <v>12.39999999999998</v>
       </c>
       <c r="K191" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L191" t="n">
         <v>12.43</v>
@@ -10020,7 +10042,7 @@
         <v>12.39999999999998</v>
       </c>
       <c r="K192" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L192" t="n">
         <v>12.41</v>
@@ -10071,7 +10093,7 @@
         <v>12.39999999999998</v>
       </c>
       <c r="K193" t="n">
-        <v>-28.57142857142857</v>
+        <v>-20</v>
       </c>
       <c r="L193" t="n">
         <v>12.39</v>
@@ -10122,7 +10144,7 @@
         <v>12.39999999999998</v>
       </c>
       <c r="K194" t="n">
-        <v>-23.07692307692308</v>
+        <v>-20</v>
       </c>
       <c r="L194" t="n">
         <v>12.38</v>
@@ -10173,7 +10195,7 @@
         <v>12.49999999999999</v>
       </c>
       <c r="K195" t="n">
-        <v>-38.46153846153855</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L195" t="n">
         <v>12.36</v>
@@ -10224,7 +10246,7 @@
         <v>12.49999999999999</v>
       </c>
       <c r="K196" t="n">
-        <v>-38.46153846153855</v>
+        <v>-100</v>
       </c>
       <c r="L196" t="n">
         <v>12.34</v>
@@ -10275,7 +10297,7 @@
         <v>12.49999999999999</v>
       </c>
       <c r="K197" t="n">
-        <v>-33.33333333333343</v>
+        <v>-100</v>
       </c>
       <c r="L197" t="n">
         <v>12.3</v>
@@ -10326,7 +10348,7 @@
         <v>12.49999999999999</v>
       </c>
       <c r="K198" t="n">
-        <v>-45.45454545454554</v>
+        <v>-100</v>
       </c>
       <c r="L198" t="n">
         <v>12.27</v>
@@ -10377,7 +10399,7 @@
         <v>12.49999999999999</v>
       </c>
       <c r="K199" t="n">
-        <v>-40.00000000000011</v>
+        <v>-100</v>
       </c>
       <c r="L199" t="n">
         <v>12.24999999999999</v>
@@ -10428,7 +10450,7 @@
         <v>12.49999999999999</v>
       </c>
       <c r="K200" t="n">
-        <v>-33.33333333333346</v>
+        <v>-100</v>
       </c>
       <c r="L200" t="n">
         <v>12.23999999999999</v>
@@ -10479,7 +10501,7 @@
         <v>12.49999999999999</v>
       </c>
       <c r="K201" t="n">
-        <v>-50.00000000000011</v>
+        <v>-100</v>
       </c>
       <c r="L201" t="n">
         <v>12.22999999999999</v>
@@ -10530,7 +10552,7 @@
         <v>12.49999999999999</v>
       </c>
       <c r="K202" t="n">
-        <v>-42.857142857143</v>
+        <v>-100</v>
       </c>
       <c r="L202" t="n">
         <v>12.22</v>
@@ -10581,7 +10603,7 @@
         <v>12.49999999999999</v>
       </c>
       <c r="K203" t="n">
-        <v>-42.857142857143</v>
+        <v>-100</v>
       </c>
       <c r="L203" t="n">
         <v>12.21</v>
@@ -10631,9 +10653,7 @@
       <c r="J204" t="n">
         <v>12.49999999999999</v>
       </c>
-      <c r="K204" t="n">
-        <v>-33.33333333333353</v>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>12.2</v>
       </c>
@@ -10682,9 +10702,7 @@
       <c r="J205" t="n">
         <v>12.49999999999999</v>
       </c>
-      <c r="K205" t="n">
-        <v>-33.33333333333353</v>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>12.2</v>
       </c>
@@ -10734,7 +10752,7 @@
         <v>12.59999999999999</v>
       </c>
       <c r="K206" t="n">
-        <v>-42.857142857143</v>
+        <v>-100</v>
       </c>
       <c r="L206" t="n">
         <v>12.19</v>
@@ -11091,7 +11109,7 @@
         <v>12.79999999999998</v>
       </c>
       <c r="K213" t="n">
-        <v>-50.00000000000022</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L213" t="n">
         <v>12.11</v>
@@ -11142,7 +11160,7 @@
         <v>12.89999999999998</v>
       </c>
       <c r="K214" t="n">
-        <v>-60.00000000000014</v>
+        <v>-50</v>
       </c>
       <c r="L214" t="n">
         <v>12.09</v>
@@ -11193,7 +11211,7 @@
         <v>12.99999999999998</v>
       </c>
       <c r="K215" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L215" t="n">
         <v>12.08</v>
@@ -11244,7 +11262,7 @@
         <v>12.99999999999998</v>
       </c>
       <c r="K216" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L216" t="n">
         <v>12.08</v>
@@ -11295,7 +11313,7 @@
         <v>12.99999999999998</v>
       </c>
       <c r="K217" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L217" t="n">
         <v>12.08</v>
@@ -11346,7 +11364,7 @@
         <v>13.09999999999998</v>
       </c>
       <c r="K218" t="n">
-        <v>-33.33333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L218" t="n">
         <v>12.07</v>
@@ -11397,7 +11415,7 @@
         <v>13.19999999999998</v>
       </c>
       <c r="K219" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L219" t="n">
         <v>12.07</v>
@@ -11448,7 +11466,7 @@
         <v>13.19999999999998</v>
       </c>
       <c r="K220" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L220" t="n">
         <v>12.07</v>
@@ -11499,7 +11517,7 @@
         <v>13.19999999999998</v>
       </c>
       <c r="K221" t="n">
-        <v>-14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L221" t="n">
         <v>12.07</v>
@@ -11550,7 +11568,7 @@
         <v>13.19999999999998</v>
       </c>
       <c r="K222" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L222" t="n">
         <v>12.08</v>
@@ -11601,7 +11619,7 @@
         <v>13.19999999999998</v>
       </c>
       <c r="K223" t="n">
-        <v>-14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L223" t="n">
         <v>12.08</v>
@@ -11652,7 +11670,7 @@
         <v>13.29999999999998</v>
       </c>
       <c r="K224" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L224" t="n">
         <v>12.1</v>
@@ -11703,7 +11721,7 @@
         <v>13.29999999999998</v>
       </c>
       <c r="K225" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L225" t="n">
         <v>12.11</v>
@@ -11754,7 +11772,7 @@
         <v>13.29999999999998</v>
       </c>
       <c r="K226" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L226" t="n">
         <v>12.12</v>
@@ -11805,7 +11823,7 @@
         <v>13.29999999999998</v>
       </c>
       <c r="K227" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L227" t="n">
         <v>12.13</v>
@@ -11856,7 +11874,7 @@
         <v>13.29999999999998</v>
       </c>
       <c r="K228" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L228" t="n">
         <v>12.15</v>
@@ -11958,7 +11976,7 @@
         <v>13.49999999999998</v>
       </c>
       <c r="K230" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L230" t="n">
         <v>12.15999999999999</v>
@@ -12009,7 +12027,7 @@
         <v>13.49999999999998</v>
       </c>
       <c r="K231" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L231" t="n">
         <v>12.16999999999999</v>
@@ -12060,7 +12078,7 @@
         <v>13.49999999999998</v>
       </c>
       <c r="K232" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L232" t="n">
         <v>12.17999999999999</v>
@@ -12111,7 +12129,7 @@
         <v>13.49999999999998</v>
       </c>
       <c r="K233" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L233" t="n">
         <v>12.18999999999999</v>
@@ -12162,7 +12180,7 @@
         <v>13.49999999999998</v>
       </c>
       <c r="K234" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L234" t="n">
         <v>12.18999999999999</v>
@@ -12213,7 +12231,7 @@
         <v>13.49999999999998</v>
       </c>
       <c r="K235" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L235" t="n">
         <v>12.18999999999999</v>
@@ -12264,7 +12282,7 @@
         <v>13.49999999999998</v>
       </c>
       <c r="K236" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L236" t="n">
         <v>12.18999999999999</v>
@@ -12315,7 +12333,7 @@
         <v>13.59999999999998</v>
       </c>
       <c r="K237" t="n">
-        <v>33.33333333333353</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L237" t="n">
         <v>12.19999999999999</v>
@@ -12366,7 +12384,7 @@
         <v>13.59999999999998</v>
       </c>
       <c r="K238" t="n">
-        <v>60.00000000000014</v>
+        <v>100</v>
       </c>
       <c r="L238" t="n">
         <v>12.20999999999999</v>
@@ -12417,7 +12435,7 @@
         <v>13.59999999999998</v>
       </c>
       <c r="K239" t="n">
-        <v>50.00000000000022</v>
+        <v>100</v>
       </c>
       <c r="L239" t="n">
         <v>12.22999999999999</v>
@@ -12468,7 +12486,7 @@
         <v>13.59999999999998</v>
       </c>
       <c r="K240" t="n">
-        <v>50.00000000000022</v>
+        <v>100</v>
       </c>
       <c r="L240" t="n">
         <v>12.23999999999999</v>
@@ -12519,7 +12537,7 @@
         <v>13.79999999999998</v>
       </c>
       <c r="K241" t="n">
-        <v>66.66666666666676</v>
+        <v>100</v>
       </c>
       <c r="L241" t="n">
         <v>12.26999999999999</v>
@@ -12570,7 +12588,7 @@
         <v>13.89999999999998</v>
       </c>
       <c r="K242" t="n">
-        <v>42.857142857143</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L242" t="n">
         <v>12.28999999999999</v>
@@ -12621,7 +12639,7 @@
         <v>13.89999999999998</v>
       </c>
       <c r="K243" t="n">
-        <v>42.857142857143</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L243" t="n">
         <v>12.30999999999999</v>
@@ -12672,7 +12690,7 @@
         <v>13.99999999999998</v>
       </c>
       <c r="K244" t="n">
-        <v>42.857142857143</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L244" t="n">
         <v>12.33999999999999</v>
@@ -12723,7 +12741,7 @@
         <v>13.99999999999998</v>
       </c>
       <c r="K245" t="n">
-        <v>42.857142857143</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L245" t="n">
         <v>12.36999999999999</v>
@@ -12774,7 +12792,7 @@
         <v>13.99999999999998</v>
       </c>
       <c r="K246" t="n">
-        <v>42.857142857143</v>
+        <v>50</v>
       </c>
       <c r="L246" t="n">
         <v>12.39999999999999</v>
@@ -12825,7 +12843,7 @@
         <v>13.99999999999998</v>
       </c>
       <c r="K247" t="n">
-        <v>42.857142857143</v>
+        <v>50</v>
       </c>
       <c r="L247" t="n">
         <v>12.41999999999999</v>
@@ -12876,7 +12894,7 @@
         <v>14.09999999999998</v>
       </c>
       <c r="K248" t="n">
-        <v>25.00000000000017</v>
+        <v>20</v>
       </c>
       <c r="L248" t="n">
         <v>12.42999999999999</v>
@@ -12927,7 +12945,7 @@
         <v>14.09999999999998</v>
       </c>
       <c r="K249" t="n">
-        <v>42.857142857143</v>
+        <v>20</v>
       </c>
       <c r="L249" t="n">
         <v>12.43999999999999</v>
@@ -12978,7 +12996,7 @@
         <v>14.09999999999998</v>
       </c>
       <c r="K250" t="n">
-        <v>33.33333333333353</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L250" t="n">
         <v>12.44999999999999</v>
@@ -13029,7 +13047,7 @@
         <v>14.09999999999998</v>
       </c>
       <c r="K251" t="n">
-        <v>33.33333333333353</v>
+        <v>0</v>
       </c>
       <c r="L251" t="n">
         <v>12.43999999999999</v>
@@ -13080,7 +13098,7 @@
         <v>14.19999999999998</v>
       </c>
       <c r="K252" t="n">
-        <v>42.857142857143</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L252" t="n">
         <v>12.44999999999999</v>
@@ -13131,7 +13149,7 @@
         <v>14.19999999999998</v>
       </c>
       <c r="K253" t="n">
-        <v>42.857142857143</v>
+        <v>0</v>
       </c>
       <c r="L253" t="n">
         <v>12.45999999999999</v>
@@ -13182,7 +13200,7 @@
         <v>14.29999999999998</v>
       </c>
       <c r="K254" t="n">
-        <v>25.00000000000017</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L254" t="n">
         <v>12.44999999999999</v>
@@ -13233,7 +13251,7 @@
         <v>14.29999999999998</v>
       </c>
       <c r="K255" t="n">
-        <v>25.00000000000017</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L255" t="n">
         <v>12.43999999999999</v>
@@ -13284,7 +13302,7 @@
         <v>14.29999999999998</v>
       </c>
       <c r="K256" t="n">
-        <v>25.00000000000017</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L256" t="n">
         <v>12.42999999999999</v>
@@ -13335,7 +13353,7 @@
         <v>14.29999999999998</v>
       </c>
       <c r="K257" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L257" t="n">
         <v>12.41999999999999</v>
@@ -13386,7 +13404,7 @@
         <v>14.29999999999998</v>
       </c>
       <c r="K258" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L258" t="n">
         <v>12.41999999999999</v>
@@ -13437,7 +13455,7 @@
         <v>14.39999999999998</v>
       </c>
       <c r="K259" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L259" t="n">
         <v>12.40999999999999</v>
@@ -13488,7 +13506,7 @@
         <v>14.49999999999998</v>
       </c>
       <c r="K260" t="n">
-        <v>-11.11111111111129</v>
+        <v>-50.00000000000022</v>
       </c>
       <c r="L260" t="n">
         <v>12.38999999999999</v>
@@ -13539,7 +13557,7 @@
         <v>14.49999999999998</v>
       </c>
       <c r="K261" t="n">
-        <v>-42.857142857143</v>
+        <v>-100</v>
       </c>
       <c r="L261" t="n">
         <v>12.36999999999999</v>
@@ -13590,7 +13608,7 @@
         <v>14.59999999999998</v>
       </c>
       <c r="K262" t="n">
-        <v>-14.28571428571421</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L262" t="n">
         <v>12.34999999999999</v>
@@ -13692,7 +13710,7 @@
         <v>14.79999999999998</v>
       </c>
       <c r="K264" t="n">
-        <v>-24.99999999999989</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L264" t="n">
         <v>12.32999999999999</v>
@@ -13743,7 +13761,7 @@
         <v>14.89999999999998</v>
       </c>
       <c r="K265" t="n">
-        <v>-11.11111111111107</v>
+        <v>0</v>
       </c>
       <c r="L265" t="n">
         <v>12.32999999999999</v>
@@ -13794,7 +13812,7 @@
         <v>14.99999999999998</v>
       </c>
       <c r="K266" t="n">
-        <v>-19.99999999999993</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L266" t="n">
         <v>12.31999999999999</v>
@@ -13845,7 +13863,7 @@
         <v>14.99999999999998</v>
       </c>
       <c r="K267" t="n">
-        <v>-19.99999999999993</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L267" t="n">
         <v>12.30999999999999</v>
@@ -13896,7 +13914,7 @@
         <v>14.99999999999998</v>
       </c>
       <c r="K268" t="n">
-        <v>-11.11111111111107</v>
+        <v>0</v>
       </c>
       <c r="L268" t="n">
         <v>12.29999999999999</v>
@@ -13947,7 +13965,7 @@
         <v>14.99999999999998</v>
       </c>
       <c r="K269" t="n">
-        <v>-11.11111111111107</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L269" t="n">
         <v>12.3</v>
@@ -13998,7 +14016,7 @@
         <v>14.99999999999998</v>
       </c>
       <c r="K270" t="n">
-        <v>-11.11111111111107</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L270" t="n">
         <v>12.31</v>
@@ -14049,7 +14067,7 @@
         <v>14.99999999999998</v>
       </c>
       <c r="K271" t="n">
-        <v>-11.11111111111107</v>
+        <v>0</v>
       </c>
       <c r="L271" t="n">
         <v>12.31999999999999</v>
@@ -14100,7 +14118,7 @@
         <v>14.99999999999998</v>
       </c>
       <c r="K272" t="n">
-        <v>-24.99999999999989</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L272" t="n">
         <v>12.31999999999999</v>
@@ -14151,7 +14169,7 @@
         <v>15.09999999999998</v>
       </c>
       <c r="K273" t="n">
-        <v>-33.33333333333333</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L273" t="n">
         <v>12.29999999999999</v>
@@ -14202,7 +14220,7 @@
         <v>15.19999999999999</v>
       </c>
       <c r="K274" t="n">
-        <v>-11.11111111111102</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L274" t="n">
         <v>12.3</v>
@@ -14253,7 +14271,7 @@
         <v>15.19999999999999</v>
       </c>
       <c r="K275" t="n">
-        <v>-11.11111111111102</v>
+        <v>0</v>
       </c>
       <c r="L275" t="n">
         <v>12.29</v>
@@ -14304,7 +14322,7 @@
         <v>15.29999999999998</v>
       </c>
       <c r="K276" t="n">
-        <v>0</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L276" t="n">
         <v>12.3</v>
@@ -14355,7 +14373,7 @@
         <v>15.39999999999998</v>
       </c>
       <c r="K277" t="n">
-        <v>-9.090909090909033</v>
+        <v>0</v>
       </c>
       <c r="L277" t="n">
         <v>12.3</v>
@@ -14406,7 +14424,7 @@
         <v>15.49999999999998</v>
       </c>
       <c r="K278" t="n">
-        <v>0</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L278" t="n">
         <v>12.31</v>
@@ -14457,7 +14475,7 @@
         <v>15.49999999999998</v>
       </c>
       <c r="K279" t="n">
-        <v>9.090909090909033</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L279" t="n">
         <v>12.31999999999999</v>
@@ -14508,7 +14526,7 @@
         <v>15.49999999999998</v>
       </c>
       <c r="K280" t="n">
-        <v>20.00000000000007</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L280" t="n">
         <v>12.32999999999999</v>
@@ -14559,7 +14577,7 @@
         <v>15.59999999999998</v>
       </c>
       <c r="K281" t="n">
-        <v>9.090909090909207</v>
+        <v>0</v>
       </c>
       <c r="L281" t="n">
         <v>12.32999999999999</v>
@@ -14610,7 +14628,7 @@
         <v>15.69999999999998</v>
       </c>
       <c r="K282" t="n">
-        <v>9.090909090909062</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L282" t="n">
         <v>12.33999999999999</v>
@@ -14661,7 +14679,7 @@
         <v>15.69999999999998</v>
       </c>
       <c r="K283" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L283" t="n">
         <v>12.35999999999999</v>
@@ -14712,7 +14730,7 @@
         <v>15.79999999999998</v>
       </c>
       <c r="K284" t="n">
-        <v>19.99999999999993</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L284" t="n">
         <v>12.37999999999999</v>
@@ -14763,7 +14781,7 @@
         <v>15.89999999999998</v>
       </c>
       <c r="K285" t="n">
-        <v>19.99999999999993</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L285" t="n">
         <v>12.40999999999999</v>
@@ -14814,7 +14832,7 @@
         <v>15.99999999999998</v>
       </c>
       <c r="K286" t="n">
-        <v>19.99999999999993</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L286" t="n">
         <v>12.41999999999999</v>
@@ -14865,7 +14883,7 @@
         <v>16.09999999999998</v>
       </c>
       <c r="K287" t="n">
-        <v>9.090909090909076</v>
+        <v>0</v>
       </c>
       <c r="L287" t="n">
         <v>12.42999999999999</v>
@@ -14916,7 +14934,7 @@
         <v>16.19999999999998</v>
       </c>
       <c r="K288" t="n">
-        <v>16.66666666666662</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L288" t="n">
         <v>12.43999999999999</v>
@@ -14967,7 +14985,7 @@
         <v>16.19999999999998</v>
       </c>
       <c r="K289" t="n">
-        <v>16.66666666666662</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L289" t="n">
         <v>12.44999999999999</v>
@@ -15018,7 +15036,7 @@
         <v>16.19999999999998</v>
       </c>
       <c r="K290" t="n">
-        <v>16.66666666666662</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L290" t="n">
         <v>12.45999999999999</v>
@@ -15069,7 +15087,7 @@
         <v>16.29999999999998</v>
       </c>
       <c r="K291" t="n">
-        <v>7.692307692307661</v>
+        <v>0</v>
       </c>
       <c r="L291" t="n">
         <v>12.46999999999999</v>
@@ -15171,7 +15189,7 @@
         <v>16.49999999999999</v>
       </c>
       <c r="K293" t="n">
-        <v>14.28571428571434</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L293" t="n">
         <v>12.47999999999999</v>
@@ -15222,7 +15240,7 @@
         <v>16.49999999999999</v>
       </c>
       <c r="K294" t="n">
-        <v>7.692307692307661</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L294" t="n">
         <v>12.46999999999999</v>
@@ -15273,7 +15291,7 @@
         <v>16.59999999999999</v>
       </c>
       <c r="K295" t="n">
-        <v>14.28571428571421</v>
+        <v>0</v>
       </c>
       <c r="L295" t="n">
         <v>12.45999999999999</v>
@@ -15324,7 +15342,7 @@
         <v>16.59999999999999</v>
       </c>
       <c r="K296" t="n">
-        <v>7.69230769230765</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L296" t="n">
         <v>12.45999999999999</v>
@@ -15375,7 +15393,7 @@
         <v>16.59999999999999</v>
       </c>
       <c r="K297" t="n">
-        <v>16.66666666666657</v>
+        <v>0</v>
       </c>
       <c r="L297" t="n">
         <v>12.46999999999999</v>
@@ -15426,7 +15444,7 @@
         <v>16.69999999999999</v>
       </c>
       <c r="K298" t="n">
-        <v>0</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L298" t="n">
         <v>12.45999999999999</v>
@@ -15477,7 +15495,7 @@
         <v>16.69999999999999</v>
       </c>
       <c r="K299" t="n">
-        <v>0</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L299" t="n">
         <v>12.44999999999999</v>
@@ -15579,7 +15597,7 @@
         <v>16.69999999999999</v>
       </c>
       <c r="K301" t="n">
-        <v>9.090909090909017</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L301" t="n">
         <v>12.43999999999999</v>
@@ -15681,7 +15699,7 @@
         <v>16.79999999999999</v>
       </c>
       <c r="K303" t="n">
-        <v>-9.090909090909003</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L303" t="n">
         <v>12.41999999999999</v>
@@ -15732,7 +15750,7 @@
         <v>16.79999999999999</v>
       </c>
       <c r="K304" t="n">
-        <v>-19.99999999999979</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L304" t="n">
         <v>12.40999999999999</v>
@@ -15783,7 +15801,7 @@
         <v>16.89999999999999</v>
       </c>
       <c r="K305" t="n">
-        <v>-39.99999999999968</v>
+        <v>-99.99999999999881</v>
       </c>
       <c r="L305" t="n">
         <v>12.37999999999999</v>
@@ -15834,7 +15852,7 @@
         <v>16.99999999999999</v>
       </c>
       <c r="K306" t="n">
-        <v>-19.99999999999972</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L306" t="n">
         <v>12.35999999999999</v>
@@ -15885,7 +15903,7 @@
         <v>17.09999999999999</v>
       </c>
       <c r="K307" t="n">
-        <v>-19.99999999999982</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L307" t="n">
         <v>12.32999999999999</v>
@@ -15936,7 +15954,7 @@
         <v>17.3</v>
       </c>
       <c r="K308" t="n">
-        <v>-9.090909090908928</v>
+        <v>0</v>
       </c>
       <c r="L308" t="n">
         <v>12.32999999999999</v>
@@ -15987,7 +16005,7 @@
         <v>17.5</v>
       </c>
       <c r="K309" t="n">
-        <v>-23.0769230769228</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L309" t="n">
         <v>12.30999999999999</v>
@@ -16038,7 +16056,7 @@
         <v>17.7</v>
       </c>
       <c r="K310" t="n">
-        <v>-6.666666666666549</v>
+        <v>0</v>
       </c>
       <c r="L310" t="n">
         <v>12.30999999999999</v>
@@ -16089,7 +16107,7 @@
         <v>17.90000000000001</v>
       </c>
       <c r="K311" t="n">
-        <v>-12.49999999999989</v>
+        <v>-16.66666666666652</v>
       </c>
       <c r="L311" t="n">
         <v>12.28999999999999</v>
@@ -16140,7 +16158,7 @@
         <v>18.00000000000001</v>
       </c>
       <c r="K312" t="n">
-        <v>-12.49999999999978</v>
+        <v>0</v>
       </c>
       <c r="L312" t="n">
         <v>12.27999999999999</v>
@@ -16191,7 +16209,7 @@
         <v>18.00000000000001</v>
       </c>
       <c r="K313" t="n">
-        <v>-6.666666666666549</v>
+        <v>0</v>
       </c>
       <c r="L313" t="n">
         <v>12.27999999999999</v>
@@ -16242,7 +16260,7 @@
         <v>18.00000000000001</v>
       </c>
       <c r="K314" t="n">
-        <v>-6.666666666666549</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L314" t="n">
         <v>12.27999999999999</v>
@@ -16293,7 +16311,7 @@
         <v>18.00000000000001</v>
       </c>
       <c r="K315" t="n">
-        <v>-14.28571428571403</v>
+        <v>0</v>
       </c>
       <c r="L315" t="n">
         <v>12.28999999999999</v>
@@ -16344,7 +16362,7 @@
         <v>18.00000000000001</v>
       </c>
       <c r="K316" t="n">
-        <v>-14.28571428571403</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L316" t="n">
         <v>12.28999999999999</v>
@@ -16446,7 +16464,7 @@
         <v>18.10000000000001</v>
       </c>
       <c r="K318" t="n">
-        <v>0</v>
+        <v>33.33333333333304</v>
       </c>
       <c r="L318" t="n">
         <v>12.29999999999999</v>
@@ -16548,7 +16566,7 @@
         <v>18.20000000000001</v>
       </c>
       <c r="K320" t="n">
-        <v>-6.666666666666549</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L320" t="n">
         <v>12.30999999999998</v>
@@ -16599,7 +16617,7 @@
         <v>18.40000000000001</v>
       </c>
       <c r="K321" t="n">
-        <v>5.882352941176379</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L321" t="n">
         <v>12.33999999999999</v>
@@ -16650,7 +16668,7 @@
         <v>18.50000000000001</v>
       </c>
       <c r="K322" t="n">
-        <v>0</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L322" t="n">
         <v>12.34999999999998</v>
@@ -16701,7 +16719,7 @@
         <v>18.60000000000001</v>
       </c>
       <c r="K323" t="n">
-        <v>11.11111111111096</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L323" t="n">
         <v>12.36999999999998</v>
@@ -16752,7 +16770,7 @@
         <v>18.60000000000001</v>
       </c>
       <c r="K324" t="n">
-        <v>11.11111111111096</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L324" t="n">
         <v>12.38999999999998</v>
@@ -16803,7 +16821,7 @@
         <v>18.70000000000001</v>
       </c>
       <c r="K325" t="n">
-        <v>11.11111111111106</v>
+        <v>14.28571428571418</v>
       </c>
       <c r="L325" t="n">
         <v>12.39999999999998</v>
@@ -16854,7 +16872,7 @@
         <v>18.70000000000001</v>
       </c>
       <c r="K326" t="n">
-        <v>5.882352941176391</v>
+        <v>14.28571428571418</v>
       </c>
       <c r="L326" t="n">
         <v>12.40999999999998</v>
@@ -16905,7 +16923,7 @@
         <v>18.80000000000001</v>
       </c>
       <c r="K327" t="n">
-        <v>5.882352941176496</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L327" t="n">
         <v>12.40999999999998</v>
@@ -16956,7 +16974,7 @@
         <v>19.00000000000001</v>
       </c>
       <c r="K328" t="n">
-        <v>5.882352941176404</v>
+        <v>11.11111111111104</v>
       </c>
       <c r="L328" t="n">
         <v>12.41999999999998</v>
@@ -17007,7 +17025,7 @@
         <v>19.20000000000001</v>
       </c>
       <c r="K329" t="n">
-        <v>5.88235294117652</v>
+        <v>0</v>
       </c>
       <c r="L329" t="n">
         <v>12.40999999999998</v>
@@ -17058,7 +17076,7 @@
         <v>19.20000000000001</v>
       </c>
       <c r="K330" t="n">
-        <v>-6.666666666666611</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L330" t="n">
         <v>12.40999999999998</v>
@@ -17109,7 +17127,7 @@
         <v>19.20000000000001</v>
       </c>
       <c r="K331" t="n">
-        <v>7.692307692307776</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L331" t="n">
         <v>12.38999999999998</v>
@@ -17160,7 +17178,7 @@
         <v>19.30000000000001</v>
       </c>
       <c r="K332" t="n">
-        <v>7.69230769230764</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L332" t="n">
         <v>12.38999999999998</v>
@@ -17211,7 +17229,7 @@
         <v>19.40000000000001</v>
       </c>
       <c r="K333" t="n">
-        <v>0</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L333" t="n">
         <v>12.36999999999998</v>
@@ -17262,7 +17280,7 @@
         <v>19.50000000000001</v>
       </c>
       <c r="K334" t="n">
-        <v>6.666666666666611</v>
+        <v>0</v>
       </c>
       <c r="L334" t="n">
         <v>12.35999999999998</v>
@@ -17313,7 +17331,7 @@
         <v>19.50000000000001</v>
       </c>
       <c r="K335" t="n">
-        <v>6.666666666666611</v>
+        <v>0</v>
       </c>
       <c r="L335" t="n">
         <v>12.35999999999998</v>
@@ -17415,7 +17433,7 @@
         <v>19.60000000000002</v>
       </c>
       <c r="K337" t="n">
-        <v>0</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L337" t="n">
         <v>12.34999999999998</v>
@@ -17466,7 +17484,7 @@
         <v>19.70000000000002</v>
       </c>
       <c r="K338" t="n">
-        <v>-12.5</v>
+        <v>-20</v>
       </c>
       <c r="L338" t="n">
         <v>12.31999999999998</v>
@@ -17517,7 +17535,7 @@
         <v>19.70000000000002</v>
       </c>
       <c r="K339" t="n">
-        <v>-12.5</v>
+        <v>-20</v>
       </c>
       <c r="L339" t="n">
         <v>12.30999999999998</v>
@@ -17568,7 +17586,7 @@
         <v>19.70000000000002</v>
       </c>
       <c r="K340" t="n">
-        <v>-6.66666666666673</v>
+        <v>-20</v>
       </c>
       <c r="L340" t="n">
         <v>12.29999999999998</v>
@@ -17619,7 +17637,7 @@
         <v>19.70000000000002</v>
       </c>
       <c r="K341" t="n">
-        <v>-23.07692307692299</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L341" t="n">
         <v>12.28999999999998</v>
@@ -17670,7 +17688,7 @@
         <v>19.70000000000002</v>
       </c>
       <c r="K342" t="n">
-        <v>-16.66666666666662</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L342" t="n">
         <v>12.26999999999999</v>
@@ -17721,7 +17739,7 @@
         <v>19.70000000000002</v>
       </c>
       <c r="K343" t="n">
-        <v>-27.27272727272713</v>
+        <v>-99.99999999999912</v>
       </c>
       <c r="L343" t="n">
         <v>12.25999999999998</v>
@@ -17772,7 +17790,7 @@
         <v>19.80000000000002</v>
       </c>
       <c r="K344" t="n">
-        <v>-16.66666666666647</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L344" t="n">
         <v>12.24999999999998</v>
@@ -17823,7 +17841,7 @@
         <v>19.80000000000002</v>
       </c>
       <c r="K345" t="n">
-        <v>-9.090909090908989</v>
+        <v>0</v>
       </c>
       <c r="L345" t="n">
         <v>12.23999999999998</v>
@@ -17874,7 +17892,7 @@
         <v>19.80000000000002</v>
       </c>
       <c r="K346" t="n">
-        <v>-9.090909090908989</v>
+        <v>0</v>
       </c>
       <c r="L346" t="n">
         <v>12.23999999999998</v>
@@ -17925,7 +17943,7 @@
         <v>19.90000000000002</v>
       </c>
       <c r="K347" t="n">
-        <v>-9.09090909090915</v>
+        <v>0</v>
       </c>
       <c r="L347" t="n">
         <v>12.22999999999999</v>
@@ -17976,7 +17994,7 @@
         <v>20.00000000000002</v>
       </c>
       <c r="K348" t="n">
-        <v>-39.99999999999961</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L348" t="n">
         <v>12.21999999999999</v>
@@ -18027,7 +18045,7 @@
         <v>20.00000000000002</v>
       </c>
       <c r="K349" t="n">
-        <v>-24.99999999999978</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L349" t="n">
         <v>12.20999999999999</v>
@@ -18078,7 +18096,7 @@
         <v>20.10000000000002</v>
       </c>
       <c r="K350" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L350" t="n">
         <v>12.20999999999999</v>
@@ -18129,7 +18147,7 @@
         <v>20.20000000000002</v>
       </c>
       <c r="K351" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L351" t="n">
         <v>12.21999999999999</v>
@@ -18180,7 +18198,7 @@
         <v>20.30000000000003</v>
       </c>
       <c r="K352" t="n">
-        <v>-19.99999999999982</v>
+        <v>0</v>
       </c>
       <c r="L352" t="n">
         <v>12.21999999999999</v>
@@ -18231,7 +18249,7 @@
         <v>20.40000000000003</v>
       </c>
       <c r="K353" t="n">
-        <v>-19.99999999999982</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L353" t="n">
         <v>12.20999999999999</v>
@@ -18282,7 +18300,7 @@
         <v>20.40000000000003</v>
       </c>
       <c r="K354" t="n">
-        <v>-33.33333333333294</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L354" t="n">
         <v>12.18999999999999</v>
@@ -18333,7 +18351,7 @@
         <v>20.50000000000003</v>
       </c>
       <c r="K355" t="n">
-        <v>-19.99999999999982</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L355" t="n">
         <v>12.17999999999999</v>
@@ -18384,7 +18402,7 @@
         <v>20.50000000000003</v>
       </c>
       <c r="K356" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L356" t="n">
         <v>12.16999999999999</v>
@@ -18435,7 +18453,7 @@
         <v>20.60000000000003</v>
       </c>
       <c r="K357" t="n">
-        <v>-19.99999999999982</v>
+        <v>0</v>
       </c>
       <c r="L357" t="n">
         <v>12.15999999999999</v>
@@ -18486,7 +18504,7 @@
         <v>20.70000000000003</v>
       </c>
       <c r="K358" t="n">
-        <v>0</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L358" t="n">
         <v>12.16999999999999</v>
@@ -18588,7 +18606,7 @@
         <v>20.70000000000003</v>
       </c>
       <c r="K360" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L360" t="n">
         <v>12.17999999999999</v>
@@ -18639,7 +18657,7 @@
         <v>20.80000000000003</v>
       </c>
       <c r="K361" t="n">
-        <v>-9.090909090908928</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L361" t="n">
         <v>12.15999999999999</v>
@@ -18690,7 +18708,7 @@
         <v>20.90000000000003</v>
       </c>
       <c r="K362" t="n">
-        <v>0</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L362" t="n">
         <v>12.15999999999999</v>
@@ -18741,7 +18759,7 @@
         <v>20.90000000000003</v>
       </c>
       <c r="K363" t="n">
-        <v>0</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L363" t="n">
         <v>12.16999999999999</v>
@@ -18792,7 +18810,7 @@
         <v>20.90000000000003</v>
       </c>
       <c r="K364" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L364" t="n">
         <v>12.17999999999999</v>
@@ -18843,7 +18861,7 @@
         <v>21.00000000000004</v>
       </c>
       <c r="K365" t="n">
-        <v>-16.66666666666652</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L365" t="n">
         <v>12.16999999999999</v>
@@ -18894,7 +18912,7 @@
         <v>21.10000000000004</v>
       </c>
       <c r="K366" t="n">
-        <v>-7.692307692307693</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L366" t="n">
         <v>12.16999999999999</v>
@@ -18945,7 +18963,7 @@
         <v>21.20000000000004</v>
       </c>
       <c r="K367" t="n">
-        <v>-7.692307692307556</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L367" t="n">
         <v>12.16999999999999</v>
@@ -18996,7 +19014,7 @@
         <v>21.20000000000004</v>
       </c>
       <c r="K368" t="n">
-        <v>0</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L368" t="n">
         <v>12.15999999999999</v>
@@ -19047,7 +19065,7 @@
         <v>21.20000000000004</v>
       </c>
       <c r="K369" t="n">
-        <v>0</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L369" t="n">
         <v>12.14999999999999</v>
@@ -19098,7 +19116,7 @@
         <v>21.30000000000004</v>
       </c>
       <c r="K370" t="n">
-        <v>0</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L370" t="n">
         <v>12.14999999999999</v>
@@ -19149,7 +19167,7 @@
         <v>21.30000000000004</v>
       </c>
       <c r="K371" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L371" t="n">
         <v>12.15999999999999</v>
@@ -19251,7 +19269,7 @@
         <v>21.30000000000004</v>
       </c>
       <c r="K373" t="n">
-        <v>11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L373" t="n">
         <v>12.15999999999999</v>
@@ -19302,7 +19320,7 @@
         <v>21.30000000000004</v>
       </c>
       <c r="K374" t="n">
-        <v>11.11111111111091</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L374" t="n">
         <v>12.15999999999999</v>
@@ -19404,7 +19422,7 @@
         <v>21.30000000000004</v>
       </c>
       <c r="K376" t="n">
-        <v>0</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L376" t="n">
         <v>12.16999999999999</v>
@@ -19455,7 +19473,7 @@
         <v>21.50000000000004</v>
       </c>
       <c r="K377" t="n">
-        <v>-11.11111111111096</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L377" t="n">
         <v>12.15999999999999</v>
@@ -19506,7 +19524,7 @@
         <v>21.60000000000004</v>
       </c>
       <c r="K378" t="n">
-        <v>-11.111111111111</v>
+        <v>0</v>
       </c>
       <c r="L378" t="n">
         <v>12.15999999999999</v>
@@ -19557,7 +19575,7 @@
         <v>21.60000000000004</v>
       </c>
       <c r="K379" t="n">
-        <v>-11.111111111111</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L379" t="n">
         <v>12.15999999999999</v>
@@ -19608,7 +19626,7 @@
         <v>21.80000000000004</v>
       </c>
       <c r="K380" t="n">
-        <v>-27.27272727272705</v>
+        <v>-60.00000000000021</v>
       </c>
       <c r="L380" t="n">
         <v>12.12999999999999</v>
@@ -19659,7 +19677,7 @@
         <v>22.00000000000004</v>
       </c>
       <c r="K381" t="n">
-        <v>0</v>
+        <v>-14.28571428571432</v>
       </c>
       <c r="L381" t="n">
         <v>12.11999999999999</v>
@@ -19710,7 +19728,7 @@
         <v>22.00000000000004</v>
       </c>
       <c r="K382" t="n">
-        <v>-9.090909090909047</v>
+        <v>-14.28571428571432</v>
       </c>
       <c r="L382" t="n">
         <v>12.10999999999999</v>
@@ -19761,7 +19779,7 @@
         <v>22.20000000000003</v>
       </c>
       <c r="K383" t="n">
-        <v>-23.07692307692298</v>
+        <v>-33.3333333333334</v>
       </c>
       <c r="L383" t="n">
         <v>12.07999999999999</v>
@@ -19863,7 +19881,7 @@
         <v>22.70000000000003</v>
       </c>
       <c r="K385" t="n">
-        <v>-5.882352941176452</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L385" t="n">
         <v>12.05999999999999</v>
@@ -19914,7 +19932,7 @@
         <v>22.70000000000003</v>
       </c>
       <c r="K386" t="n">
-        <v>-12.49999999999997</v>
+        <v>0</v>
       </c>
       <c r="L386" t="n">
         <v>12.03999999999999</v>
@@ -19965,7 +19983,7 @@
         <v>22.70000000000003</v>
       </c>
       <c r="K387" t="n">
-        <v>-6.666666666666658</v>
+        <v>-9.090909090909076</v>
       </c>
       <c r="L387" t="n">
         <v>12.03999999999999</v>
@@ -20067,7 +20085,7 @@
         <v>22.90000000000003</v>
       </c>
       <c r="K389" t="n">
-        <v>-5.882352941176464</v>
+        <v>9.090909090909076</v>
       </c>
       <c r="L389" t="n">
         <v>12.02999999999999</v>
@@ -20118,7 +20136,7 @@
         <v>23.00000000000004</v>
       </c>
       <c r="K390" t="n">
-        <v>-5.882352941176464</v>
+        <v>0</v>
       </c>
       <c r="L390" t="n">
         <v>12.04999999999999</v>
@@ -20169,7 +20187,7 @@
         <v>23.10000000000004</v>
       </c>
       <c r="K391" t="n">
-        <v>-11.11111111111109</v>
+        <v>-9.090909090909047</v>
       </c>
       <c r="L391" t="n">
         <v>12.03999999999999</v>
@@ -20220,7 +20238,7 @@
         <v>23.10000000000004</v>
       </c>
       <c r="K392" t="n">
-        <v>-11.11111111111109</v>
+        <v>11.11111111111104</v>
       </c>
       <c r="L392" t="n">
         <v>12.02999999999999</v>
@@ -20271,7 +20289,7 @@
         <v>23.20000000000004</v>
       </c>
       <c r="K393" t="n">
-        <v>-5.263157894736827</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L393" t="n">
         <v>12.04999999999999</v>
@@ -20322,7 +20340,7 @@
         <v>23.30000000000004</v>
       </c>
       <c r="K394" t="n">
-        <v>-9.999999999999964</v>
+        <v>0</v>
       </c>
       <c r="L394" t="n">
         <v>12.02999999999999</v>
@@ -20373,7 +20391,7 @@
         <v>23.30000000000004</v>
       </c>
       <c r="K395" t="n">
-        <v>-9.999999999999964</v>
+        <v>0</v>
       </c>
       <c r="L395" t="n">
         <v>12.02999999999999</v>
@@ -20424,7 +20442,7 @@
         <v>23.30000000000004</v>
       </c>
       <c r="K396" t="n">
-        <v>-9.999999999999964</v>
+        <v>0</v>
       </c>
       <c r="L396" t="n">
         <v>12.02999999999999</v>
@@ -20475,7 +20493,7 @@
         <v>23.30000000000004</v>
       </c>
       <c r="K397" t="n">
-        <v>0</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L397" t="n">
         <v>12.02999999999999</v>
@@ -20526,7 +20544,7 @@
         <v>23.30000000000004</v>
       </c>
       <c r="K398" t="n">
-        <v>-5.88235294117644</v>
+        <v>0</v>
       </c>
       <c r="L398" t="n">
         <v>12.01999999999999</v>
@@ -20628,7 +20646,7 @@
         <v>23.40000000000004</v>
       </c>
       <c r="K400" t="n">
-        <v>12.49999999999992</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L400" t="n">
         <v>12.02999999999999</v>
@@ -20679,7 +20697,7 @@
         <v>23.40000000000004</v>
       </c>
       <c r="K401" t="n">
-        <v>0</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L401" t="n">
         <v>12.03999999999999</v>
@@ -20781,7 +20799,7 @@
         <v>23.50000000000004</v>
       </c>
       <c r="K403" t="n">
-        <v>7.692307692307619</v>
+        <v>0</v>
       </c>
       <c r="L403" t="n">
         <v>12.03999999999999</v>
@@ -20832,7 +20850,7 @@
         <v>23.50000000000004</v>
       </c>
       <c r="K404" t="n">
-        <v>-19.99999999999979</v>
+        <v>0</v>
       </c>
       <c r="L404" t="n">
         <v>12.03999999999999</v>
@@ -20934,7 +20952,7 @@
         <v>23.60000000000004</v>
       </c>
       <c r="K406" t="n">
-        <v>11.11111111111096</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L406" t="n">
         <v>12.04999999999999</v>
@@ -20985,7 +21003,7 @@
         <v>23.60000000000004</v>
       </c>
       <c r="K407" t="n">
-        <v>11.11111111111096</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L407" t="n">
         <v>12.05999999999999</v>
@@ -21036,7 +21054,7 @@
         <v>23.70000000000005</v>
       </c>
       <c r="K408" t="n">
-        <v>-11.11111111111091</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L408" t="n">
         <v>12.05999999999999</v>
@@ -21087,7 +21105,7 @@
         <v>23.70000000000005</v>
       </c>
       <c r="K409" t="n">
-        <v>0</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L409" t="n">
         <v>12.04999999999999</v>
@@ -21138,7 +21156,7 @@
         <v>23.70000000000005</v>
       </c>
       <c r="K410" t="n">
-        <v>-14.28571428571403</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L410" t="n">
         <v>12.03999999999999</v>
@@ -21189,7 +21207,7 @@
         <v>23.70000000000005</v>
       </c>
       <c r="K411" t="n">
-        <v>0</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L411" t="n">
         <v>12.02999999999999</v>
@@ -21291,7 +21309,7 @@
         <v>23.70000000000005</v>
       </c>
       <c r="K413" t="n">
-        <v>-19.99999999999964</v>
+        <v>0</v>
       </c>
       <c r="L413" t="n">
         <v>12.01999999999999</v>
@@ -21393,7 +21411,7 @@
         <v>23.70000000000005</v>
       </c>
       <c r="K415" t="n">
-        <v>0</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L415" t="n">
         <v>12.01999999999999</v>
@@ -21444,7 +21462,7 @@
         <v>23.70000000000005</v>
       </c>
       <c r="K416" t="n">
-        <v>0</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L416" t="n">
         <v>12.00999999999999</v>
@@ -21495,7 +21513,7 @@
         <v>23.80000000000005</v>
       </c>
       <c r="K417" t="n">
-        <v>-19.99999999999964</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L417" t="n">
         <v>11.98999999999999</v>
@@ -21597,7 +21615,7 @@
         <v>24.00000000000005</v>
       </c>
       <c r="K419" t="n">
-        <v>0</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L419" t="n">
         <v>11.99999999999999</v>
@@ -21648,7 +21666,7 @@
         <v>24.00000000000005</v>
       </c>
       <c r="K420" t="n">
-        <v>0</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L420" t="n">
         <v>12.00999999999999</v>
@@ -21699,7 +21717,7 @@
         <v>24.00000000000005</v>
       </c>
       <c r="K421" t="n">
-        <v>0</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L421" t="n">
         <v>12.01999999999999</v>
@@ -21750,7 +21768,7 @@
         <v>24.10000000000005</v>
       </c>
       <c r="K422" t="n">
-        <v>14.28571428571403</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L422" t="n">
         <v>12.03999999999999</v>
@@ -21801,7 +21819,7 @@
         <v>24.10000000000005</v>
       </c>
       <c r="K423" t="n">
-        <v>33.33333333333275</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L423" t="n">
         <v>12.05999999999999</v>
@@ -21852,7 +21870,7 @@
         <v>24.20000000000005</v>
       </c>
       <c r="K424" t="n">
-        <v>14.28571428571403</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L424" t="n">
         <v>12.06999999999999</v>
@@ -21903,7 +21921,7 @@
         <v>24.30000000000005</v>
       </c>
       <c r="K425" t="n">
-        <v>24.99999999999956</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L425" t="n">
         <v>12.08999999999999</v>
@@ -21954,7 +21972,7 @@
         <v>24.30000000000005</v>
       </c>
       <c r="K426" t="n">
-        <v>14.28571428571403</v>
+        <v>59.99999999999893</v>
       </c>
       <c r="L426" t="n">
         <v>12.10999999999999</v>
@@ -22005,7 +22023,7 @@
         <v>24.40000000000006</v>
       </c>
       <c r="K427" t="n">
-        <v>0</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L427" t="n">
         <v>12.12999999999998</v>
@@ -22056,7 +22074,7 @@
         <v>24.40000000000006</v>
       </c>
       <c r="K428" t="n">
-        <v>14.28571428571403</v>
+        <v>0</v>
       </c>
       <c r="L428" t="n">
         <v>12.13999999999998</v>
@@ -22107,7 +22125,7 @@
         <v>24.40000000000006</v>
       </c>
       <c r="K429" t="n">
-        <v>14.28571428571403</v>
+        <v>0</v>
       </c>
       <c r="L429" t="n">
         <v>12.13999999999998</v>
@@ -22158,7 +22176,7 @@
         <v>24.60000000000005</v>
       </c>
       <c r="K430" t="n">
-        <v>-11.11111111111096</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L430" t="n">
         <v>12.11999999999999</v>
@@ -22209,7 +22227,7 @@
         <v>24.70000000000005</v>
       </c>
       <c r="K431" t="n">
-        <v>0</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L431" t="n">
         <v>12.10999999999999</v>
@@ -22260,7 +22278,7 @@
         <v>24.80000000000005</v>
       </c>
       <c r="K432" t="n">
-        <v>9.090909090908989</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L432" t="n">
         <v>12.09999999999998</v>
@@ -22311,7 +22329,7 @@
         <v>24.90000000000006</v>
       </c>
       <c r="K433" t="n">
-        <v>0</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L433" t="n">
         <v>12.07999999999998</v>
@@ -22362,7 +22380,7 @@
         <v>24.90000000000006</v>
       </c>
       <c r="K434" t="n">
-        <v>0</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L434" t="n">
         <v>12.06999999999998</v>
@@ -22413,7 +22431,7 @@
         <v>24.90000000000006</v>
       </c>
       <c r="K435" t="n">
-        <v>0</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L435" t="n">
         <v>12.04999999999998</v>

--- a/BackTest/2019-10-19 BackTest LBA.xlsx
+++ b/BackTest/2019-10-19 BackTest LBA.xlsx
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2379,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2449,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -3674,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -7311,13 +7311,17 @@
         <v>12.70666666666667</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K198" t="n">
+        <v>12.2</v>
+      </c>
       <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
@@ -7346,14 +7350,22 @@
         <v>12.69333333333334</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K199" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7381,14 +7393,22 @@
         <v>12.68166666666668</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K200" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7591,13 +7611,17 @@
         <v>12.59000000000001</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K206" t="n">
+        <v>12.2</v>
+      </c>
       <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
@@ -7626,14 +7650,22 @@
         <v>12.57166666666668</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K207" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7667,8 +7699,14 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8081,17 +8119,13 @@
         <v>12.37333333333335</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K220" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
@@ -8120,22 +8154,14 @@
         <v>12.36000000000002</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K221" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8163,22 +8189,14 @@
         <v>12.35000000000002</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K222" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8206,17 +8224,13 @@
         <v>12.34000000000002</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K223" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
@@ -8245,22 +8259,14 @@
         <v>12.33333333333335</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K224" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8288,22 +8294,14 @@
         <v>12.32666666666668</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K225" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8331,22 +8329,14 @@
         <v>12.31833333333335</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K226" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8374,22 +8364,14 @@
         <v>12.31166666666669</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K227" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8417,22 +8399,14 @@
         <v>12.30333333333335</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K228" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8460,22 +8434,14 @@
         <v>12.29333333333335</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K229" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8509,14 +8475,8 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8544,22 +8504,14 @@
         <v>12.27833333333335</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K231" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8587,22 +8539,14 @@
         <v>12.27166666666668</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K232" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8630,22 +8574,14 @@
         <v>12.26333333333335</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K233" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8673,22 +8609,14 @@
         <v>12.25666666666669</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K234" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8722,14 +8650,8 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -8763,14 +8685,8 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -8804,14 +8720,8 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -8845,14 +8755,8 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -8886,14 +8790,8 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -8927,14 +8825,8 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -8968,14 +8860,8 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9009,14 +8895,8 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9050,14 +8930,8 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9091,14 +8965,8 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9132,14 +9000,8 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9170,19 +9032,13 @@
         <v>0</v>
       </c>
       <c r="I246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
-        <v>1.02805785123967</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -9211,7 +9067,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
@@ -9246,7 +9102,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
@@ -9351,7 +9207,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
@@ -9421,7 +9277,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
@@ -9561,7 +9417,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
@@ -9596,7 +9452,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
@@ -9631,7 +9487,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
@@ -10436,7 +10292,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
@@ -10471,7 +10327,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
@@ -10506,7 +10362,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
@@ -10541,7 +10397,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
@@ -10576,7 +10432,7 @@
         <v>0</v>
       </c>
       <c r="I286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
@@ -10646,7 +10502,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
@@ -10681,7 +10537,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
@@ -10716,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
@@ -10821,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="I293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
@@ -10856,7 +10712,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
@@ -10961,7 +10817,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
@@ -10996,7 +10852,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
@@ -11031,7 +10887,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
@@ -13478,20 +13334,14 @@
         <v>12.26333333333333</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
       </c>
-      <c r="J369" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L369" t="inlineStr"/>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -13519,20 +13369,14 @@
         <v>12.26</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
       </c>
-      <c r="J370" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L370" t="inlineStr"/>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -13560,20 +13404,14 @@
         <v>12.26</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
       </c>
-      <c r="J371" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L371" t="inlineStr"/>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -13601,20 +13439,14 @@
         <v>12.25833333333333</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
       </c>
-      <c r="J372" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L372" t="inlineStr"/>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -13642,20 +13474,14 @@
         <v>12.25666666666667</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
       </c>
-      <c r="J373" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L373" t="inlineStr"/>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -13683,20 +13509,14 @@
         <v>12.255</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
       </c>
-      <c r="J374" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L374" t="inlineStr"/>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -13731,11 +13551,7 @@
       </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L375" t="inlineStr"/>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -13770,11 +13586,7 @@
       </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L376" t="inlineStr"/>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -13809,11 +13621,7 @@
       </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L377" t="inlineStr"/>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -13848,11 +13656,7 @@
       </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L378" t="inlineStr"/>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -13880,20 +13684,14 @@
         <v>12.23666666666668</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
       </c>
-      <c r="J379" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L379" t="inlineStr"/>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -13921,20 +13719,14 @@
         <v>12.23000000000001</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
       </c>
-      <c r="J380" t="n">
-        <v>12</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L380" t="inlineStr"/>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -13962,20 +13754,14 @@
         <v>12.22333333333335</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
       </c>
-      <c r="J381" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L381" t="inlineStr"/>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -14003,20 +13789,14 @@
         <v>12.21833333333334</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
       </c>
-      <c r="J382" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L382" t="inlineStr"/>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -14044,20 +13824,14 @@
         <v>12.20833333333334</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
       </c>
-      <c r="J383" t="n">
-        <v>12</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L383" t="inlineStr"/>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -14085,20 +13859,14 @@
         <v>12.20333333333335</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
       </c>
-      <c r="J384" t="n">
-        <v>12</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L384" t="inlineStr"/>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -14126,20 +13894,14 @@
         <v>12.19666666666668</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
       </c>
-      <c r="J385" t="n">
-        <v>12</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L385" t="inlineStr"/>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -14167,20 +13929,14 @@
         <v>12.19000000000001</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
       </c>
-      <c r="J386" t="n">
-        <v>12</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L386" t="inlineStr"/>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -14208,20 +13964,14 @@
         <v>12.18500000000001</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
       </c>
-      <c r="J387" t="n">
-        <v>12</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L387" t="inlineStr"/>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -14249,20 +13999,14 @@
         <v>12.17833333333335</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
       </c>
-      <c r="J388" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L388" t="inlineStr"/>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -14290,20 +14034,14 @@
         <v>12.17333333333335</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
       </c>
-      <c r="J389" t="n">
-        <v>12</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L389" t="inlineStr"/>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -14331,20 +14069,14 @@
         <v>12.17000000000002</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
       </c>
-      <c r="J390" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L390" t="inlineStr"/>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -14372,20 +14104,14 @@
         <v>12.16500000000002</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
       </c>
-      <c r="J391" t="n">
-        <v>12</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L391" t="inlineStr"/>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -14413,20 +14139,14 @@
         <v>12.15833333333335</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
       </c>
-      <c r="J392" t="n">
-        <v>12</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L392" t="inlineStr"/>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -14454,20 +14174,14 @@
         <v>12.15500000000002</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
       </c>
-      <c r="J393" t="n">
-        <v>12</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L393" t="inlineStr"/>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -14495,20 +14209,14 @@
         <v>12.14833333333335</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
       </c>
-      <c r="J394" t="n">
-        <v>12</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L394" t="inlineStr"/>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -14536,20 +14244,14 @@
         <v>12.14166666666669</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
       </c>
-      <c r="J395" t="n">
-        <v>12</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L395" t="inlineStr"/>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -14577,20 +14279,14 @@
         <v>12.13666666666669</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
       </c>
-      <c r="J396" t="n">
-        <v>12</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L396" t="inlineStr"/>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -14618,20 +14314,14 @@
         <v>12.13166666666669</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
       </c>
-      <c r="J397" t="n">
-        <v>12</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L397" t="inlineStr"/>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -14659,20 +14349,14 @@
         <v>12.12833333333335</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
       </c>
-      <c r="J398" t="n">
-        <v>12</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L398" t="inlineStr"/>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -14700,20 +14384,14 @@
         <v>12.12666666666669</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
       </c>
-      <c r="J399" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L399" t="inlineStr"/>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -14741,20 +14419,14 @@
         <v>12.12500000000002</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
       </c>
-      <c r="J400" t="n">
-        <v>12</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L400" t="inlineStr"/>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -14782,20 +14454,14 @@
         <v>12.12333333333335</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
       </c>
-      <c r="J401" t="n">
-        <v>12</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L401" t="inlineStr"/>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -14823,20 +14489,14 @@
         <v>12.12166666666669</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
       </c>
-      <c r="J402" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L402" t="inlineStr"/>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -14864,20 +14524,14 @@
         <v>12.11833333333335</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
       </c>
-      <c r="J403" t="n">
-        <v>12</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L403" t="inlineStr"/>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -14905,20 +14559,14 @@
         <v>12.11333333333335</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
       </c>
-      <c r="J404" t="n">
-        <v>12</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L404" t="inlineStr"/>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -14946,20 +14594,14 @@
         <v>12.10833333333335</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
       </c>
-      <c r="J405" t="n">
-        <v>12</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L405" t="inlineStr"/>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -14987,20 +14629,14 @@
         <v>12.10500000000002</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
       </c>
-      <c r="J406" t="n">
-        <v>12</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L406" t="inlineStr"/>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -15028,20 +14664,14 @@
         <v>12.10333333333335</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
       </c>
-      <c r="J407" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L407" t="inlineStr"/>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -15069,20 +14699,14 @@
         <v>12.10166666666669</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
       </c>
-      <c r="J408" t="n">
-        <v>12</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L408" t="inlineStr"/>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -15110,20 +14734,14 @@
         <v>12.10000000000002</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
       </c>
-      <c r="J409" t="n">
-        <v>12</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L409" t="inlineStr"/>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -15151,20 +14769,14 @@
         <v>12.09666666666669</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
       </c>
-      <c r="J410" t="n">
-        <v>12</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L410" t="inlineStr"/>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -15192,20 +14804,14 @@
         <v>12.09166666666669</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
       </c>
-      <c r="J411" t="n">
-        <v>12</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L411" t="inlineStr"/>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -15233,20 +14839,14 @@
         <v>12.08833333333335</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
       </c>
-      <c r="J412" t="n">
-        <v>12</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L412" t="inlineStr"/>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -15274,20 +14874,14 @@
         <v>12.08666666666668</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
       </c>
-      <c r="J413" t="n">
-        <v>12</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L413" t="inlineStr"/>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -15315,20 +14909,14 @@
         <v>12.08500000000002</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
       </c>
-      <c r="J414" t="n">
-        <v>12</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L414" t="inlineStr"/>
       <c r="M414" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-19 BackTest LBA.xlsx
+++ b/BackTest/2019-10-19 BackTest LBA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -880,7 +880,7 @@
         <v>1880004.9674</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>1880004.9674</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>1966952.0043</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>2274546.518</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>2197269.4726</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>2471758.2796</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>2145463.446299999</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>2426766.338291302</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>2426766.338291302</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>2354480.838391302</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>2375454.624991302</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>2375454.624991302</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>2351443.078091302</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>2389507.695191302</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>2364169.843391303</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>2604960.637391303</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>2604960.637391303</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>2604960.637391303</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>2506860.637391303</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>2506860.637391303</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>2506860.637391303</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>2497451.323191303</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>2442013.877991303</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>2392013.877991303</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>2468519.711291303</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>2510973.628491303</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>2503242.503491303</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>2507537.225291303</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>2432327.225291303</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>2432327.225291303</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>2303923.003091303</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>2319686.180191303</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>2189364.708691303</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>2189364.708691303</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>2240969.856691303</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>2082883.681791301</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>2094891.096991301</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>2052746.033891301</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>2054891.096991301</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>2054891.096991301</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>2027751.120291301</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>2027751.120291301</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>2027751.120291301</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>2027751.120291301</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>2007951.120291301</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>2076406.917991302</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>2008677.949091302</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>2008677.949091302</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>2008677.949091302</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>2028939.596391301</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>2018267.998991302</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>2118267.998991301</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>2112641.501791301</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -14905,10 +14905,14 @@
         <v>-138927.711948381</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J440" t="n">
+        <v>11.9</v>
+      </c>
       <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
@@ -14938,11 +14942,19 @@
         <v>-138927.711948381</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J441" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -14971,11 +14983,19 @@
         <v>-574892.387848381</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J442" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15004,11 +15024,19 @@
         <v>-503101.5051483809</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J443" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15040,8 +15068,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15070,11 +15104,19 @@
         <v>-503963.5051483809</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>12</v>
+      </c>
+      <c r="J445" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15103,11 +15145,19 @@
         <v>-503963.5051483809</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>12</v>
+      </c>
+      <c r="J446" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15136,11 +15186,19 @@
         <v>-498273.5051483809</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>12</v>
+      </c>
+      <c r="J447" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15169,11 +15227,19 @@
         <v>-511914.0982483809</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J448" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15202,11 +15268,19 @@
         <v>-424207.0507483809</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>12</v>
+      </c>
+      <c r="J449" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15235,15 +15309,19 @@
         <v>-459195.8579483809</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I450" t="n">
         <v>12.1</v>
       </c>
       <c r="J450" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K450" t="inlineStr"/>
+        <v>11.9</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15272,17 +15350,17 @@
         <v>-459195.8579483809</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I451" t="n">
         <v>12</v>
       </c>
       <c r="J451" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L451" t="n">
@@ -15313,17 +15391,17 @@
         <v>-453107.1679483809</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I452" t="n">
         <v>12</v>
       </c>
       <c r="J452" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L452" t="n">
@@ -15354,13 +15432,13 @@
         <v>-697698.9105483809</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I453" t="n">
         <v>12.1</v>
       </c>
       <c r="J453" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -15395,13 +15473,13 @@
         <v>-697698.9105483809</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I454" t="n">
         <v>12</v>
       </c>
       <c r="J454" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -15436,13 +15514,13 @@
         <v>-697698.9105483809</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I455" t="n">
         <v>12</v>
       </c>
       <c r="J455" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -15477,13 +15555,13 @@
         <v>-697698.9105483809</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I456" t="n">
         <v>12</v>
       </c>
       <c r="J456" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -15518,13 +15596,13 @@
         <v>-697698.9105483809</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I457" t="n">
         <v>12</v>
       </c>
       <c r="J457" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -15559,13 +15637,13 @@
         <v>-682898.9105483809</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I458" t="n">
         <v>12</v>
       </c>
       <c r="J458" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -15600,13 +15678,13 @@
         <v>-682898.9105483809</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I459" t="n">
         <v>12.1</v>
       </c>
       <c r="J459" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -15641,13 +15719,13 @@
         <v>-682898.9105483809</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I460" t="n">
         <v>12.1</v>
       </c>
       <c r="J460" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -15682,13 +15760,13 @@
         <v>-682898.9105483809</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I461" t="n">
         <v>12.1</v>
       </c>
       <c r="J461" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -15723,11 +15801,13 @@
         <v>-726734.9657483809</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>12.1</v>
+      </c>
       <c r="J462" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -15762,13 +15842,13 @@
         <v>-726734.9657483809</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I463" t="n">
         <v>12</v>
       </c>
       <c r="J463" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -15803,13 +15883,13 @@
         <v>-726734.9657483809</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I464" t="n">
         <v>12</v>
       </c>
       <c r="J464" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -15844,13 +15924,13 @@
         <v>-719051.9657483809</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I465" t="n">
         <v>12</v>
       </c>
       <c r="J465" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -15885,13 +15965,13 @@
         <v>-719051.9657483809</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I466" t="n">
         <v>12.1</v>
       </c>
       <c r="J466" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -15926,13 +16006,13 @@
         <v>-749750.1775483809</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I467" t="n">
         <v>12.1</v>
       </c>
       <c r="J467" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -15967,13 +16047,13 @@
         <v>-749750.1775483809</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I468" t="n">
         <v>12</v>
       </c>
       <c r="J468" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -16008,13 +16088,13 @@
         <v>-749750.1775483809</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I469" t="n">
         <v>12</v>
       </c>
       <c r="J469" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -16049,13 +16129,13 @@
         <v>-749750.1775483809</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I470" t="n">
         <v>12</v>
       </c>
       <c r="J470" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -16090,13 +16170,13 @@
         <v>-749750.1775483809</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I471" t="n">
         <v>12</v>
       </c>
       <c r="J471" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -16131,13 +16211,13 @@
         <v>-749750.1775483809</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I472" t="n">
         <v>12</v>
       </c>
       <c r="J472" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -16172,13 +16252,13 @@
         <v>-749750.1775483809</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I473" t="n">
         <v>12</v>
       </c>
       <c r="J473" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -16213,13 +16293,13 @@
         <v>-749750.1775483809</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I474" t="n">
         <v>12</v>
       </c>
       <c r="J474" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -16254,13 +16334,13 @@
         <v>-749750.1775483809</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I475" t="n">
         <v>12</v>
       </c>
       <c r="J475" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -16295,13 +16375,13 @@
         <v>-1143412.541248381</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I476" t="n">
         <v>12</v>
       </c>
       <c r="J476" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -16336,13 +16416,13 @@
         <v>-1107311.810048381</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I477" t="n">
         <v>11.9</v>
       </c>
       <c r="J477" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -16377,13 +16457,13 @@
         <v>-976808.9370483808</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I478" t="n">
         <v>12</v>
       </c>
       <c r="J478" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -16418,13 +16498,13 @@
         <v>-976808.9370483808</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I479" t="n">
         <v>12.1</v>
       </c>
       <c r="J479" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -16459,13 +16539,13 @@
         <v>-976808.9370483808</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I480" t="n">
         <v>12.1</v>
       </c>
       <c r="J480" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -16500,13 +16580,13 @@
         <v>-886903.4587483809</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I481" t="n">
         <v>12.1</v>
       </c>
       <c r="J481" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -16541,13 +16621,13 @@
         <v>-886903.4587483809</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I482" t="n">
         <v>12.2</v>
       </c>
       <c r="J482" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -16582,11 +16662,13 @@
         <v>-974653.3767483809</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J483" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -16599,6 +16681,6 @@
       <c r="M483" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest LBA.xlsx
+++ b/BackTest/2019-10-19 BackTest LBA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -880,7 +880,7 @@
         <v>1880004.9674</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>1880004.9674</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>1966952.0043</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>2274546.518</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>2197269.4726</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>2471758.2796</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>2145463.446299999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>2115739.431799999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>2023844.790599999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>2329592.293899999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>2168777.182099999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>2196331.648499999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>2196331.648499999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>2289806.503499999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>2426766.338291302</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>2354480.838391302</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>2375454.624991302</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>2375454.624991302</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>2351443.078091302</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>2389507.695191302</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>2364169.843391303</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>2465116.759591302</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>2604960.637391303</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>2604960.637391303</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>2604960.637391303</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>2506860.637391303</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>2506860.637391303</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>2506860.637391303</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>2497451.323191303</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>2442013.877991303</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>2392013.877991303</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>2468519.711291303</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>2510973.628491303</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>2503242.503491303</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>2507537.225291303</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>2432327.225291303</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>2432327.225291303</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>2303923.003091303</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>2319686.180191303</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>2189364.708691303</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>2189364.708691303</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>2240969.856691303</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>2054891.096991301</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>2054891.096991301</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>2054891.096991301</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>2027751.120291301</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>2027751.120291301</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>2027751.120291301</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>2027751.120291301</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>2007951.120291301</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>2008931.120291301</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>1999531.120291301</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>1963505.721291301</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>1964084.023391301</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>1961822.371091301</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>1992022.371091301</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>1978422.371091301</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>1988422.371091301</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>1963832.371091301</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>1963832.371091301</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>1963832.371091301</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>1963832.371091301</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>1993832.371091301</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>1985239.718891301</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>1985239.718891301</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>2046406.917991302</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>2008677.949091302</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>1974417.827491301</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>1974417.827491301</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>1962817.827491301</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>1990047.827491301</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>1990047.827491301</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>1990047.827491301</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>1960308.827491301</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>2046438.946591301</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>2046438.946591301</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>2046438.946591301</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>2046438.946591301</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>2034809.596391301</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>2017355.993291301</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>2030735.993291301</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>2030735.993291301</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>2030735.993291301</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>2118267.998991301</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>2001422.539291301</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>2001422.539291301</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>2001422.539291301</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>1795283.818791301</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>1795283.818791301</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>1795283.818791301</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>1794494.184791301</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>1372492.171691302</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>1372492.171691302</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>1372503.295091302</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>1372503.295091302</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>1372503.295091302</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>1372503.295091302</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>1368811.081791302</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>1368811.081791302</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>1368811.081791302</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>1368811.081791302</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>1371251.936391302</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>1371251.936391302</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>1371211.936391302</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>1371211.936391302</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>1371211.936391302</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>1371211.936391302</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>1236222.314991302</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>686778.9409913016</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>686778.9409913016</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>585281.802751619</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>573091.802751619</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -14905,14 +14905,10 @@
         <v>-138927.711948381</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
-      </c>
-      <c r="I440" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J440" t="n">
-        <v>11.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
@@ -14942,796 +14938,700 @@
         <v>-138927.711948381</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
-      </c>
-      <c r="I441" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J441" t="n">
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
+      <c r="L441" t="n">
+        <v>1</v>
+      </c>
+      <c r="M441" t="inlineStr"/>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="B442" t="n">
+        <v>12</v>
+      </c>
+      <c r="C442" t="n">
         <v>11.9</v>
       </c>
-      <c r="K441" t="inlineStr">
+      <c r="D442" t="n">
+        <v>12</v>
+      </c>
+      <c r="E442" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F442" t="n">
+        <v>435964.6759</v>
+      </c>
+      <c r="G442" t="n">
+        <v>-574892.387848381</v>
+      </c>
+      <c r="H442" t="n">
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
+      <c r="L442" t="n">
+        <v>1</v>
+      </c>
+      <c r="M442" t="inlineStr"/>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n">
+        <v>441</v>
+      </c>
+      <c r="B443" t="n">
+        <v>12</v>
+      </c>
+      <c r="C443" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D443" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E443" t="n">
+        <v>12</v>
+      </c>
+      <c r="F443" t="n">
+        <v>71790.8827</v>
+      </c>
+      <c r="G443" t="n">
+        <v>-503101.5051483809</v>
+      </c>
+      <c r="H443" t="n">
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
+      <c r="L443" t="n">
+        <v>1</v>
+      </c>
+      <c r="M443" t="inlineStr"/>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="B444" t="n">
+        <v>12</v>
+      </c>
+      <c r="C444" t="n">
+        <v>12</v>
+      </c>
+      <c r="D444" t="n">
+        <v>12</v>
+      </c>
+      <c r="E444" t="n">
+        <v>12</v>
+      </c>
+      <c r="F444" t="n">
+        <v>862</v>
+      </c>
+      <c r="G444" t="n">
+        <v>-503963.5051483809</v>
+      </c>
+      <c r="H444" t="n">
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
+      <c r="L444" t="n">
+        <v>1</v>
+      </c>
+      <c r="M444" t="inlineStr"/>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="B445" t="n">
+        <v>12</v>
+      </c>
+      <c r="C445" t="n">
+        <v>12</v>
+      </c>
+      <c r="D445" t="n">
+        <v>12</v>
+      </c>
+      <c r="E445" t="n">
+        <v>12</v>
+      </c>
+      <c r="F445" t="n">
+        <v>10</v>
+      </c>
+      <c r="G445" t="n">
+        <v>-503963.5051483809</v>
+      </c>
+      <c r="H445" t="n">
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
+      <c r="L445" t="n">
+        <v>1</v>
+      </c>
+      <c r="M445" t="inlineStr"/>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="B446" t="n">
+        <v>12</v>
+      </c>
+      <c r="C446" t="n">
+        <v>12</v>
+      </c>
+      <c r="D446" t="n">
+        <v>12</v>
+      </c>
+      <c r="E446" t="n">
+        <v>12</v>
+      </c>
+      <c r="F446" t="n">
+        <v>10680.2019</v>
+      </c>
+      <c r="G446" t="n">
+        <v>-503963.5051483809</v>
+      </c>
+      <c r="H446" t="n">
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>12</v>
+      </c>
+      <c r="J446" t="n">
+        <v>12</v>
+      </c>
+      <c r="K446" t="inlineStr"/>
+      <c r="L446" t="n">
+        <v>1</v>
+      </c>
+      <c r="M446" t="inlineStr"/>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n">
+        <v>445</v>
+      </c>
+      <c r="B447" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C447" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D447" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E447" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F447" t="n">
+        <v>5690</v>
+      </c>
+      <c r="G447" t="n">
+        <v>-498273.5051483809</v>
+      </c>
+      <c r="H447" t="n">
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>12</v>
+      </c>
+      <c r="K447" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L441" t="n">
-        <v>1</v>
-      </c>
-      <c r="M441" t="inlineStr"/>
-    </row>
-    <row r="442">
-      <c r="A442" s="1" t="n">
-        <v>440</v>
-      </c>
-      <c r="B442" t="n">
+      <c r="L447" t="n">
+        <v>1</v>
+      </c>
+      <c r="M447" t="inlineStr"/>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="B448" t="n">
         <v>12</v>
       </c>
-      <c r="C442" t="n">
+      <c r="C448" t="n">
+        <v>12</v>
+      </c>
+      <c r="D448" t="n">
+        <v>12</v>
+      </c>
+      <c r="E448" t="n">
+        <v>12</v>
+      </c>
+      <c r="F448" t="n">
+        <v>13640.5931</v>
+      </c>
+      <c r="G448" t="n">
+        <v>-511914.0982483809</v>
+      </c>
+      <c r="H448" t="n">
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>12</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L448" t="n">
+        <v>1</v>
+      </c>
+      <c r="M448" t="inlineStr"/>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B449" t="n">
         <v>11.9</v>
       </c>
-      <c r="D442" t="n">
+      <c r="C449" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D449" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E449" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F449" t="n">
+        <v>87707.0475</v>
+      </c>
+      <c r="G449" t="n">
+        <v>-424207.0507483809</v>
+      </c>
+      <c r="H449" t="n">
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
+      <c r="L449" t="n">
+        <v>1</v>
+      </c>
+      <c r="M449" t="inlineStr"/>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="B450" t="n">
         <v>12</v>
       </c>
-      <c r="E442" t="n">
+      <c r="C450" t="n">
+        <v>12</v>
+      </c>
+      <c r="D450" t="n">
+        <v>12</v>
+      </c>
+      <c r="E450" t="n">
+        <v>12</v>
+      </c>
+      <c r="F450" t="n">
+        <v>34988.8072</v>
+      </c>
+      <c r="G450" t="n">
+        <v>-459195.8579483809</v>
+      </c>
+      <c r="H450" t="n">
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
+      <c r="L450" t="n">
+        <v>1</v>
+      </c>
+      <c r="M450" t="inlineStr"/>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n">
+        <v>449</v>
+      </c>
+      <c r="B451" t="n">
+        <v>12</v>
+      </c>
+      <c r="C451" t="n">
+        <v>12</v>
+      </c>
+      <c r="D451" t="n">
+        <v>12</v>
+      </c>
+      <c r="E451" t="n">
+        <v>12</v>
+      </c>
+      <c r="F451" t="n">
+        <v>30620</v>
+      </c>
+      <c r="G451" t="n">
+        <v>-459195.8579483809</v>
+      </c>
+      <c r="H451" t="n">
+        <v>0</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
+      <c r="L451" t="n">
+        <v>1</v>
+      </c>
+      <c r="M451" t="inlineStr"/>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="B452" t="n">
+        <v>12</v>
+      </c>
+      <c r="C452" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D452" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E452" t="n">
+        <v>12</v>
+      </c>
+      <c r="F452" t="n">
+        <v>6088.69</v>
+      </c>
+      <c r="G452" t="n">
+        <v>-453107.1679483809</v>
+      </c>
+      <c r="H452" t="n">
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
+      <c r="L452" t="n">
+        <v>1</v>
+      </c>
+      <c r="M452" t="inlineStr"/>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="B453" t="n">
+        <v>12</v>
+      </c>
+      <c r="C453" t="n">
+        <v>12</v>
+      </c>
+      <c r="D453" t="n">
+        <v>12</v>
+      </c>
+      <c r="E453" t="n">
+        <v>12</v>
+      </c>
+      <c r="F453" t="n">
+        <v>244591.7426</v>
+      </c>
+      <c r="G453" t="n">
+        <v>-697698.9105483809</v>
+      </c>
+      <c r="H453" t="n">
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J453" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K453" t="inlineStr"/>
+      <c r="L453" t="n">
+        <v>1</v>
+      </c>
+      <c r="M453" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="B454" t="n">
+        <v>12</v>
+      </c>
+      <c r="C454" t="n">
+        <v>12</v>
+      </c>
+      <c r="D454" t="n">
+        <v>12</v>
+      </c>
+      <c r="E454" t="n">
+        <v>12</v>
+      </c>
+      <c r="F454" t="n">
+        <v>33490</v>
+      </c>
+      <c r="G454" t="n">
+        <v>-697698.9105483809</v>
+      </c>
+      <c r="H454" t="n">
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>12</v>
+      </c>
+      <c r="J454" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L454" t="n">
+        <v>1</v>
+      </c>
+      <c r="M454" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="n">
+        <v>453</v>
+      </c>
+      <c r="B455" t="n">
+        <v>12</v>
+      </c>
+      <c r="C455" t="n">
+        <v>12</v>
+      </c>
+      <c r="D455" t="n">
+        <v>12</v>
+      </c>
+      <c r="E455" t="n">
+        <v>12</v>
+      </c>
+      <c r="F455" t="n">
+        <v>26130</v>
+      </c>
+      <c r="G455" t="n">
+        <v>-697698.9105483809</v>
+      </c>
+      <c r="H455" t="n">
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>12</v>
+      </c>
+      <c r="J455" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L455" t="n">
+        <v>1</v>
+      </c>
+      <c r="M455" t="inlineStr"/>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="n">
+        <v>454</v>
+      </c>
+      <c r="B456" t="n">
+        <v>12</v>
+      </c>
+      <c r="C456" t="n">
+        <v>12</v>
+      </c>
+      <c r="D456" t="n">
+        <v>12</v>
+      </c>
+      <c r="E456" t="n">
+        <v>12</v>
+      </c>
+      <c r="F456" t="n">
+        <v>13060</v>
+      </c>
+      <c r="G456" t="n">
+        <v>-697698.9105483809</v>
+      </c>
+      <c r="H456" t="n">
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>12</v>
+      </c>
+      <c r="J456" t="n">
+        <v>12</v>
+      </c>
+      <c r="K456" t="inlineStr"/>
+      <c r="L456" t="n">
+        <v>1</v>
+      </c>
+      <c r="M456" t="inlineStr"/>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="B457" t="n">
+        <v>12</v>
+      </c>
+      <c r="C457" t="n">
+        <v>12</v>
+      </c>
+      <c r="D457" t="n">
+        <v>12</v>
+      </c>
+      <c r="E457" t="n">
+        <v>12</v>
+      </c>
+      <c r="F457" t="n">
+        <v>18548.5558</v>
+      </c>
+      <c r="G457" t="n">
+        <v>-697698.9105483809</v>
+      </c>
+      <c r="H457" t="n">
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>12</v>
+      </c>
+      <c r="J457" t="n">
+        <v>12</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L457" t="n">
+        <v>1</v>
+      </c>
+      <c r="M457" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="B458" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C458" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D458" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E458" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F458" t="n">
+        <v>14800</v>
+      </c>
+      <c r="G458" t="n">
+        <v>-682898.9105483809</v>
+      </c>
+      <c r="H458" t="n">
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>12</v>
+      </c>
+      <c r="J458" t="n">
+        <v>12</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L458" t="n">
+        <v>1</v>
+      </c>
+      <c r="M458" t="inlineStr"/>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="n">
+        <v>457</v>
+      </c>
+      <c r="B459" t="n">
+        <v>12</v>
+      </c>
+      <c r="C459" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D459" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E459" t="n">
         <v>11.9</v>
       </c>
-      <c r="F442" t="n">
-        <v>435964.6759</v>
-      </c>
-      <c r="G442" t="n">
-        <v>-574892.387848381</v>
-      </c>
-      <c r="H442" t="n">
-        <v>1</v>
-      </c>
-      <c r="I442" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J442" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K442" t="inlineStr">
+      <c r="F459" t="n">
+        <v>168239.6451</v>
+      </c>
+      <c r="G459" t="n">
+        <v>-682898.9105483809</v>
+      </c>
+      <c r="H459" t="n">
+        <v>0</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
+      <c r="L459" t="n">
+        <v>1</v>
+      </c>
+      <c r="M459" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="B460" t="n">
+        <v>12</v>
+      </c>
+      <c r="C460" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D460" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E460" t="n">
+        <v>12</v>
+      </c>
+      <c r="F460" t="n">
+        <v>14802.393</v>
+      </c>
+      <c r="G460" t="n">
+        <v>-682898.9105483809</v>
+      </c>
+      <c r="H460" t="n">
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L442" t="n">
-        <v>1</v>
-      </c>
-      <c r="M442" t="inlineStr"/>
-    </row>
-    <row r="443">
-      <c r="A443" s="1" t="n">
-        <v>441</v>
-      </c>
-      <c r="B443" t="n">
-        <v>12</v>
-      </c>
-      <c r="C443" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D443" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E443" t="n">
-        <v>12</v>
-      </c>
-      <c r="F443" t="n">
-        <v>71790.8827</v>
-      </c>
-      <c r="G443" t="n">
-        <v>-503101.5051483809</v>
-      </c>
-      <c r="H443" t="n">
-        <v>1</v>
-      </c>
-      <c r="I443" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J443" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L443" t="n">
-        <v>1</v>
-      </c>
-      <c r="M443" t="inlineStr"/>
-    </row>
-    <row r="444">
-      <c r="A444" s="1" t="n">
-        <v>442</v>
-      </c>
-      <c r="B444" t="n">
-        <v>12</v>
-      </c>
-      <c r="C444" t="n">
-        <v>12</v>
-      </c>
-      <c r="D444" t="n">
-        <v>12</v>
-      </c>
-      <c r="E444" t="n">
-        <v>12</v>
-      </c>
-      <c r="F444" t="n">
-        <v>862</v>
-      </c>
-      <c r="G444" t="n">
-        <v>-503963.5051483809</v>
-      </c>
-      <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L444" t="n">
-        <v>1</v>
-      </c>
-      <c r="M444" t="inlineStr"/>
-    </row>
-    <row r="445">
-      <c r="A445" s="1" t="n">
-        <v>443</v>
-      </c>
-      <c r="B445" t="n">
-        <v>12</v>
-      </c>
-      <c r="C445" t="n">
-        <v>12</v>
-      </c>
-      <c r="D445" t="n">
-        <v>12</v>
-      </c>
-      <c r="E445" t="n">
-        <v>12</v>
-      </c>
-      <c r="F445" t="n">
-        <v>10</v>
-      </c>
-      <c r="G445" t="n">
-        <v>-503963.5051483809</v>
-      </c>
-      <c r="H445" t="n">
-        <v>1</v>
-      </c>
-      <c r="I445" t="n">
-        <v>12</v>
-      </c>
-      <c r="J445" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L445" t="n">
-        <v>1</v>
-      </c>
-      <c r="M445" t="inlineStr"/>
-    </row>
-    <row r="446">
-      <c r="A446" s="1" t="n">
-        <v>444</v>
-      </c>
-      <c r="B446" t="n">
-        <v>12</v>
-      </c>
-      <c r="C446" t="n">
-        <v>12</v>
-      </c>
-      <c r="D446" t="n">
-        <v>12</v>
-      </c>
-      <c r="E446" t="n">
-        <v>12</v>
-      </c>
-      <c r="F446" t="n">
-        <v>10680.2019</v>
-      </c>
-      <c r="G446" t="n">
-        <v>-503963.5051483809</v>
-      </c>
-      <c r="H446" t="n">
-        <v>1</v>
-      </c>
-      <c r="I446" t="n">
-        <v>12</v>
-      </c>
-      <c r="J446" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L446" t="n">
-        <v>1</v>
-      </c>
-      <c r="M446" t="inlineStr"/>
-    </row>
-    <row r="447">
-      <c r="A447" s="1" t="n">
-        <v>445</v>
-      </c>
-      <c r="B447" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C447" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D447" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E447" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F447" t="n">
-        <v>5690</v>
-      </c>
-      <c r="G447" t="n">
-        <v>-498273.5051483809</v>
-      </c>
-      <c r="H447" t="n">
-        <v>1</v>
-      </c>
-      <c r="I447" t="n">
-        <v>12</v>
-      </c>
-      <c r="J447" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L447" t="n">
-        <v>1</v>
-      </c>
-      <c r="M447" t="inlineStr"/>
-    </row>
-    <row r="448">
-      <c r="A448" s="1" t="n">
-        <v>446</v>
-      </c>
-      <c r="B448" t="n">
-        <v>12</v>
-      </c>
-      <c r="C448" t="n">
-        <v>12</v>
-      </c>
-      <c r="D448" t="n">
-        <v>12</v>
-      </c>
-      <c r="E448" t="n">
-        <v>12</v>
-      </c>
-      <c r="F448" t="n">
-        <v>13640.5931</v>
-      </c>
-      <c r="G448" t="n">
-        <v>-511914.0982483809</v>
-      </c>
-      <c r="H448" t="n">
-        <v>1</v>
-      </c>
-      <c r="I448" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J448" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L448" t="n">
-        <v>1</v>
-      </c>
-      <c r="M448" t="inlineStr"/>
-    </row>
-    <row r="449">
-      <c r="A449" s="1" t="n">
-        <v>447</v>
-      </c>
-      <c r="B449" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C449" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D449" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E449" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F449" t="n">
-        <v>87707.0475</v>
-      </c>
-      <c r="G449" t="n">
-        <v>-424207.0507483809</v>
-      </c>
-      <c r="H449" t="n">
-        <v>1</v>
-      </c>
-      <c r="I449" t="n">
-        <v>12</v>
-      </c>
-      <c r="J449" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L449" t="n">
-        <v>1</v>
-      </c>
-      <c r="M449" t="inlineStr"/>
-    </row>
-    <row r="450">
-      <c r="A450" s="1" t="n">
-        <v>448</v>
-      </c>
-      <c r="B450" t="n">
-        <v>12</v>
-      </c>
-      <c r="C450" t="n">
-        <v>12</v>
-      </c>
-      <c r="D450" t="n">
-        <v>12</v>
-      </c>
-      <c r="E450" t="n">
-        <v>12</v>
-      </c>
-      <c r="F450" t="n">
-        <v>34988.8072</v>
-      </c>
-      <c r="G450" t="n">
-        <v>-459195.8579483809</v>
-      </c>
-      <c r="H450" t="n">
-        <v>1</v>
-      </c>
-      <c r="I450" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J450" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L450" t="n">
-        <v>1</v>
-      </c>
-      <c r="M450" t="inlineStr"/>
-    </row>
-    <row r="451">
-      <c r="A451" s="1" t="n">
-        <v>449</v>
-      </c>
-      <c r="B451" t="n">
-        <v>12</v>
-      </c>
-      <c r="C451" t="n">
-        <v>12</v>
-      </c>
-      <c r="D451" t="n">
-        <v>12</v>
-      </c>
-      <c r="E451" t="n">
-        <v>12</v>
-      </c>
-      <c r="F451" t="n">
-        <v>30620</v>
-      </c>
-      <c r="G451" t="n">
-        <v>-459195.8579483809</v>
-      </c>
-      <c r="H451" t="n">
-        <v>1</v>
-      </c>
-      <c r="I451" t="n">
-        <v>12</v>
-      </c>
-      <c r="J451" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L451" t="n">
-        <v>1</v>
-      </c>
-      <c r="M451" t="inlineStr"/>
-    </row>
-    <row r="452">
-      <c r="A452" s="1" t="n">
-        <v>450</v>
-      </c>
-      <c r="B452" t="n">
-        <v>12</v>
-      </c>
-      <c r="C452" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D452" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E452" t="n">
-        <v>12</v>
-      </c>
-      <c r="F452" t="n">
-        <v>6088.69</v>
-      </c>
-      <c r="G452" t="n">
-        <v>-453107.1679483809</v>
-      </c>
-      <c r="H452" t="n">
-        <v>1</v>
-      </c>
-      <c r="I452" t="n">
-        <v>12</v>
-      </c>
-      <c r="J452" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L452" t="n">
-        <v>1</v>
-      </c>
-      <c r="M452" t="inlineStr"/>
-    </row>
-    <row r="453">
-      <c r="A453" s="1" t="n">
-        <v>451</v>
-      </c>
-      <c r="B453" t="n">
-        <v>12</v>
-      </c>
-      <c r="C453" t="n">
-        <v>12</v>
-      </c>
-      <c r="D453" t="n">
-        <v>12</v>
-      </c>
-      <c r="E453" t="n">
-        <v>12</v>
-      </c>
-      <c r="F453" t="n">
-        <v>244591.7426</v>
-      </c>
-      <c r="G453" t="n">
-        <v>-697698.9105483809</v>
-      </c>
-      <c r="H453" t="n">
-        <v>1</v>
-      </c>
-      <c r="I453" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J453" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L453" t="n">
-        <v>1</v>
-      </c>
-      <c r="M453" t="inlineStr"/>
-    </row>
-    <row r="454">
-      <c r="A454" s="1" t="n">
-        <v>452</v>
-      </c>
-      <c r="B454" t="n">
-        <v>12</v>
-      </c>
-      <c r="C454" t="n">
-        <v>12</v>
-      </c>
-      <c r="D454" t="n">
-        <v>12</v>
-      </c>
-      <c r="E454" t="n">
-        <v>12</v>
-      </c>
-      <c r="F454" t="n">
-        <v>33490</v>
-      </c>
-      <c r="G454" t="n">
-        <v>-697698.9105483809</v>
-      </c>
-      <c r="H454" t="n">
-        <v>1</v>
-      </c>
-      <c r="I454" t="n">
-        <v>12</v>
-      </c>
-      <c r="J454" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L454" t="n">
-        <v>1</v>
-      </c>
-      <c r="M454" t="inlineStr"/>
-    </row>
-    <row r="455">
-      <c r="A455" s="1" t="n">
-        <v>453</v>
-      </c>
-      <c r="B455" t="n">
-        <v>12</v>
-      </c>
-      <c r="C455" t="n">
-        <v>12</v>
-      </c>
-      <c r="D455" t="n">
-        <v>12</v>
-      </c>
-      <c r="E455" t="n">
-        <v>12</v>
-      </c>
-      <c r="F455" t="n">
-        <v>26130</v>
-      </c>
-      <c r="G455" t="n">
-        <v>-697698.9105483809</v>
-      </c>
-      <c r="H455" t="n">
-        <v>1</v>
-      </c>
-      <c r="I455" t="n">
-        <v>12</v>
-      </c>
-      <c r="J455" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L455" t="n">
-        <v>1</v>
-      </c>
-      <c r="M455" t="inlineStr"/>
-    </row>
-    <row r="456">
-      <c r="A456" s="1" t="n">
-        <v>454</v>
-      </c>
-      <c r="B456" t="n">
-        <v>12</v>
-      </c>
-      <c r="C456" t="n">
-        <v>12</v>
-      </c>
-      <c r="D456" t="n">
-        <v>12</v>
-      </c>
-      <c r="E456" t="n">
-        <v>12</v>
-      </c>
-      <c r="F456" t="n">
-        <v>13060</v>
-      </c>
-      <c r="G456" t="n">
-        <v>-697698.9105483809</v>
-      </c>
-      <c r="H456" t="n">
-        <v>1</v>
-      </c>
-      <c r="I456" t="n">
-        <v>12</v>
-      </c>
-      <c r="J456" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L456" t="n">
-        <v>1</v>
-      </c>
-      <c r="M456" t="inlineStr"/>
-    </row>
-    <row r="457">
-      <c r="A457" s="1" t="n">
-        <v>455</v>
-      </c>
-      <c r="B457" t="n">
-        <v>12</v>
-      </c>
-      <c r="C457" t="n">
-        <v>12</v>
-      </c>
-      <c r="D457" t="n">
-        <v>12</v>
-      </c>
-      <c r="E457" t="n">
-        <v>12</v>
-      </c>
-      <c r="F457" t="n">
-        <v>18548.5558</v>
-      </c>
-      <c r="G457" t="n">
-        <v>-697698.9105483809</v>
-      </c>
-      <c r="H457" t="n">
-        <v>1</v>
-      </c>
-      <c r="I457" t="n">
-        <v>12</v>
-      </c>
-      <c r="J457" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L457" t="n">
-        <v>1</v>
-      </c>
-      <c r="M457" t="inlineStr"/>
-    </row>
-    <row r="458">
-      <c r="A458" s="1" t="n">
-        <v>456</v>
-      </c>
-      <c r="B458" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C458" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D458" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E458" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F458" t="n">
-        <v>14800</v>
-      </c>
-      <c r="G458" t="n">
-        <v>-682898.9105483809</v>
-      </c>
-      <c r="H458" t="n">
-        <v>1</v>
-      </c>
-      <c r="I458" t="n">
-        <v>12</v>
-      </c>
-      <c r="J458" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L458" t="n">
-        <v>1</v>
-      </c>
-      <c r="M458" t="inlineStr"/>
-    </row>
-    <row r="459">
-      <c r="A459" s="1" t="n">
-        <v>457</v>
-      </c>
-      <c r="B459" t="n">
-        <v>12</v>
-      </c>
-      <c r="C459" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D459" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E459" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F459" t="n">
-        <v>168239.6451</v>
-      </c>
-      <c r="G459" t="n">
-        <v>-682898.9105483809</v>
-      </c>
-      <c r="H459" t="n">
-        <v>1</v>
-      </c>
-      <c r="I459" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J459" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L459" t="n">
-        <v>1</v>
-      </c>
-      <c r="M459" t="inlineStr"/>
-    </row>
-    <row r="460">
-      <c r="A460" s="1" t="n">
-        <v>458</v>
-      </c>
-      <c r="B460" t="n">
-        <v>12</v>
-      </c>
-      <c r="C460" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D460" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E460" t="n">
-        <v>12</v>
-      </c>
-      <c r="F460" t="n">
-        <v>14802.393</v>
-      </c>
-      <c r="G460" t="n">
-        <v>-682898.9105483809</v>
-      </c>
-      <c r="H460" t="n">
-        <v>1</v>
-      </c>
-      <c r="I460" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J460" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15765,9 +15665,7 @@
       <c r="I461" t="n">
         <v>12.1</v>
       </c>
-      <c r="J461" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15806,9 +15704,7 @@
       <c r="I462" t="n">
         <v>12.1</v>
       </c>
-      <c r="J462" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15847,9 +15743,7 @@
       <c r="I463" t="n">
         <v>12</v>
       </c>
-      <c r="J463" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15888,9 +15782,7 @@
       <c r="I464" t="n">
         <v>12</v>
       </c>
-      <c r="J464" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15929,9 +15821,7 @@
       <c r="I465" t="n">
         <v>12</v>
       </c>
-      <c r="J465" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15970,9 +15860,7 @@
       <c r="I466" t="n">
         <v>12.1</v>
       </c>
-      <c r="J466" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16011,9 +15899,7 @@
       <c r="I467" t="n">
         <v>12.1</v>
       </c>
-      <c r="J467" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16052,9 +15938,7 @@
       <c r="I468" t="n">
         <v>12</v>
       </c>
-      <c r="J468" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16093,9 +15977,7 @@
       <c r="I469" t="n">
         <v>12</v>
       </c>
-      <c r="J469" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16134,9 +16016,7 @@
       <c r="I470" t="n">
         <v>12</v>
       </c>
-      <c r="J470" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16175,9 +16055,7 @@
       <c r="I471" t="n">
         <v>12</v>
       </c>
-      <c r="J471" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16216,9 +16094,7 @@
       <c r="I472" t="n">
         <v>12</v>
       </c>
-      <c r="J472" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16257,9 +16133,7 @@
       <c r="I473" t="n">
         <v>12</v>
       </c>
-      <c r="J473" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16298,9 +16172,7 @@
       <c r="I474" t="n">
         <v>12</v>
       </c>
-      <c r="J474" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16339,9 +16211,7 @@
       <c r="I475" t="n">
         <v>12</v>
       </c>
-      <c r="J475" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16380,9 +16250,7 @@
       <c r="I476" t="n">
         <v>12</v>
       </c>
-      <c r="J476" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16421,9 +16289,7 @@
       <c r="I477" t="n">
         <v>11.9</v>
       </c>
-      <c r="J477" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16462,9 +16328,7 @@
       <c r="I478" t="n">
         <v>12</v>
       </c>
-      <c r="J478" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16503,9 +16367,7 @@
       <c r="I479" t="n">
         <v>12.1</v>
       </c>
-      <c r="J479" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16544,9 +16406,7 @@
       <c r="I480" t="n">
         <v>12.1</v>
       </c>
-      <c r="J480" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16585,9 +16445,7 @@
       <c r="I481" t="n">
         <v>12.1</v>
       </c>
-      <c r="J481" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16621,14 +16479,10 @@
         <v>-886903.4587483809</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
-      </c>
-      <c r="I482" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J482" t="n">
-        <v>11.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I482" t="inlineStr"/>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16662,14 +16516,10 @@
         <v>-974653.3767483809</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
-      </c>
-      <c r="I483" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J483" t="n">
-        <v>11.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I483" t="inlineStr"/>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16681,6 +16531,6 @@
       <c r="M483" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest LBA.xlsx
+++ b/BackTest/2019-10-19 BackTest LBA.xlsx
@@ -880,7 +880,7 @@
         <v>1880004.9674</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>1880004.9674</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>1966952.0043</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>2274546.518</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>2197269.4726</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>2471758.2796</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>2145463.446299999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>2115739.431799999</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>2023844.790599999</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>2329592.293899999</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>2168777.182099999</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>2196331.648499999</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>2196331.648499999</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>2289806.503499999</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>2535028.339191303</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>2535028.339191303</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>2438974.225791303</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>2426766.338291302</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>2426766.338291302</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>2426766.338291302</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>2354480.838391302</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>2375454.624991302</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>2375454.624991302</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>2351443.078091302</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>2389507.695191302</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>2364169.843391303</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>2465116.759591302</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>2465116.759591302</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>2480041.681991302</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>2480041.681991302</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>2480041.681991302</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>2480041.681991302</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>2480041.681991302</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>2480041.681991302</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>2479941.931991302</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>2802415.837091302</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>2728415.837091302</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>2781165.837091302</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>2781755.837091302</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>2781755.837091302</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>2777258.837091302</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>2722255.837091302</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>2054891.096991301</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>2054891.096991301</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>2054891.096991301</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>2027751.120291301</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>2027751.120291301</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>2027751.120291301</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>2027751.120291301</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>2007951.120291301</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>2008931.120291301</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>1999531.120291301</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>1963505.721291301</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>1964084.023391301</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>1961822.371091301</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>1992022.371091301</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>1978422.371091301</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>1988422.371091301</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>1963832.371091301</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>1963832.371091301</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>1963832.371091301</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>1963832.371091301</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>1993832.371091301</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>1985239.718891301</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>1985239.718891301</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>2046406.917991302</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>2008677.949091302</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>1974417.827491301</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>1974417.827491301</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>1962817.827491301</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>1990047.827491301</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>1990047.827491301</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>1990047.827491301</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>1960308.827491301</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>2046438.946591301</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>2046438.946591301</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>2046438.946591301</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>2046438.946591301</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>2034809.596391301</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>2017355.993291301</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>2030735.993291301</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>2030735.993291301</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>2030735.993291301</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>2118267.998991301</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>2001422.539291301</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>2001422.539291301</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>2001422.539291301</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>1795283.818791301</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>1795283.818791301</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>1795283.818791301</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>1794494.184791301</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>1372492.171691302</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>1372492.171691302</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>1372503.295091302</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>1372503.295091302</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>1372503.295091302</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>1372503.295091302</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>1368811.081791302</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>1368811.081791302</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>1368811.081791302</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>1368811.081791302</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>1371251.936391302</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>1371251.936391302</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>1371211.936391302</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>1371211.936391302</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>1371211.936391302</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>1371211.936391302</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>1236222.314991302</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>686778.9409913016</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>686778.9409913016</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>585281.802751619</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>573091.802751619</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -15103,14 +15103,10 @@
         <v>-503963.5051483809</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
-      </c>
-      <c r="I446" t="n">
-        <v>12</v>
-      </c>
-      <c r="J446" t="n">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
@@ -15143,14 +15139,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>12</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15182,14 +15172,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>12</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15350,14 +15334,10 @@
         <v>-697698.9105483809</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
-      </c>
-      <c r="I453" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J453" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
@@ -15387,19 +15367,11 @@
         <v>-697698.9105483809</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
-      </c>
-      <c r="I454" t="n">
-        <v>12</v>
-      </c>
-      <c r="J454" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15428,19 +15400,11 @@
         <v>-697698.9105483809</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
-      </c>
-      <c r="I455" t="n">
-        <v>12</v>
-      </c>
-      <c r="J455" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15469,14 +15433,10 @@
         <v>-697698.9105483809</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
-      </c>
-      <c r="I456" t="n">
-        <v>12</v>
-      </c>
-      <c r="J456" t="n">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
@@ -15506,19 +15466,11 @@
         <v>-697698.9105483809</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
-      </c>
-      <c r="I457" t="n">
-        <v>12</v>
-      </c>
-      <c r="J457" t="n">
-        <v>12</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15547,19 +15499,11 @@
         <v>-682898.9105483809</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
-      </c>
-      <c r="I458" t="n">
-        <v>12</v>
-      </c>
-      <c r="J458" t="n">
-        <v>12</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15621,173 +15565,155 @@
         <v>-682898.9105483809</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
-      </c>
-      <c r="I460" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
+      <c r="K460" t="inlineStr"/>
+      <c r="L460" t="n">
+        <v>1</v>
+      </c>
+      <c r="M460" t="inlineStr"/>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="n">
+        <v>459</v>
+      </c>
+      <c r="B461" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C461" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D461" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E461" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F461" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G461" t="n">
+        <v>-682898.9105483809</v>
+      </c>
+      <c r="H461" t="n">
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
+      <c r="L461" t="n">
+        <v>1</v>
+      </c>
+      <c r="M461" t="inlineStr"/>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="B462" t="n">
+        <v>12</v>
+      </c>
+      <c r="C462" t="n">
+        <v>12</v>
+      </c>
+      <c r="D462" t="n">
+        <v>12</v>
+      </c>
+      <c r="E462" t="n">
+        <v>12</v>
+      </c>
+      <c r="F462" t="n">
+        <v>43836.0552</v>
+      </c>
+      <c r="G462" t="n">
+        <v>-726734.9657483809</v>
+      </c>
+      <c r="H462" t="n">
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
+      <c r="L462" t="n">
+        <v>1</v>
+      </c>
+      <c r="M462" t="inlineStr"/>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="n">
+        <v>461</v>
+      </c>
+      <c r="B463" t="n">
+        <v>12</v>
+      </c>
+      <c r="C463" t="n">
+        <v>12</v>
+      </c>
+      <c r="D463" t="n">
+        <v>12</v>
+      </c>
+      <c r="E463" t="n">
+        <v>12</v>
+      </c>
+      <c r="F463" t="n">
+        <v>24702.6786</v>
+      </c>
+      <c r="G463" t="n">
+        <v>-726734.9657483809</v>
+      </c>
+      <c r="H463" t="n">
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>12</v>
+      </c>
+      <c r="J463" t="n">
+        <v>12</v>
+      </c>
+      <c r="K463" t="inlineStr"/>
+      <c r="L463" t="n">
+        <v>1</v>
+      </c>
+      <c r="M463" t="inlineStr"/>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="n">
+        <v>462</v>
+      </c>
+      <c r="B464" t="n">
+        <v>12</v>
+      </c>
+      <c r="C464" t="n">
+        <v>12</v>
+      </c>
+      <c r="D464" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E464" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F464" t="n">
+        <v>159544.3274</v>
+      </c>
+      <c r="G464" t="n">
+        <v>-726734.9657483809</v>
+      </c>
+      <c r="H464" t="n">
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>12</v>
+      </c>
+      <c r="J464" t="n">
+        <v>12</v>
+      </c>
+      <c r="K464" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L460" t="n">
-        <v>1</v>
-      </c>
-      <c r="M460" t="inlineStr"/>
-    </row>
-    <row r="461">
-      <c r="A461" s="1" t="n">
-        <v>459</v>
-      </c>
-      <c r="B461" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C461" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D461" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E461" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F461" t="n">
-        <v>1500</v>
-      </c>
-      <c r="G461" t="n">
-        <v>-682898.9105483809</v>
-      </c>
-      <c r="H461" t="n">
-        <v>1</v>
-      </c>
-      <c r="I461" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L461" t="n">
-        <v>1</v>
-      </c>
-      <c r="M461" t="inlineStr"/>
-    </row>
-    <row r="462">
-      <c r="A462" s="1" t="n">
-        <v>460</v>
-      </c>
-      <c r="B462" t="n">
-        <v>12</v>
-      </c>
-      <c r="C462" t="n">
-        <v>12</v>
-      </c>
-      <c r="D462" t="n">
-        <v>12</v>
-      </c>
-      <c r="E462" t="n">
-        <v>12</v>
-      </c>
-      <c r="F462" t="n">
-        <v>43836.0552</v>
-      </c>
-      <c r="G462" t="n">
-        <v>-726734.9657483809</v>
-      </c>
-      <c r="H462" t="n">
-        <v>1</v>
-      </c>
-      <c r="I462" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L462" t="n">
-        <v>1</v>
-      </c>
-      <c r="M462" t="inlineStr"/>
-    </row>
-    <row r="463">
-      <c r="A463" s="1" t="n">
-        <v>461</v>
-      </c>
-      <c r="B463" t="n">
-        <v>12</v>
-      </c>
-      <c r="C463" t="n">
-        <v>12</v>
-      </c>
-      <c r="D463" t="n">
-        <v>12</v>
-      </c>
-      <c r="E463" t="n">
-        <v>12</v>
-      </c>
-      <c r="F463" t="n">
-        <v>24702.6786</v>
-      </c>
-      <c r="G463" t="n">
-        <v>-726734.9657483809</v>
-      </c>
-      <c r="H463" t="n">
-        <v>1</v>
-      </c>
-      <c r="I463" t="n">
-        <v>12</v>
-      </c>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L463" t="n">
-        <v>1</v>
-      </c>
-      <c r="M463" t="inlineStr"/>
-    </row>
-    <row r="464">
-      <c r="A464" s="1" t="n">
-        <v>462</v>
-      </c>
-      <c r="B464" t="n">
-        <v>12</v>
-      </c>
-      <c r="C464" t="n">
-        <v>12</v>
-      </c>
-      <c r="D464" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E464" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F464" t="n">
-        <v>159544.3274</v>
-      </c>
-      <c r="G464" t="n">
-        <v>-726734.9657483809</v>
-      </c>
-      <c r="H464" t="n">
-        <v>1</v>
-      </c>
-      <c r="I464" t="n">
-        <v>12</v>
-      </c>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15821,7 +15747,9 @@
       <c r="I465" t="n">
         <v>12</v>
       </c>
-      <c r="J465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>12</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15860,7 +15788,9 @@
       <c r="I466" t="n">
         <v>12.1</v>
       </c>
-      <c r="J466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>12</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15899,7 +15829,9 @@
       <c r="I467" t="n">
         <v>12.1</v>
       </c>
-      <c r="J467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>12</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15938,7 +15870,9 @@
       <c r="I468" t="n">
         <v>12</v>
       </c>
-      <c r="J468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>12</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15977,7 +15911,9 @@
       <c r="I469" t="n">
         <v>12</v>
       </c>
-      <c r="J469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>12</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16016,7 +15952,9 @@
       <c r="I470" t="n">
         <v>12</v>
       </c>
-      <c r="J470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>12</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16055,7 +15993,9 @@
       <c r="I471" t="n">
         <v>12</v>
       </c>
-      <c r="J471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>12</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16094,7 +16034,9 @@
       <c r="I472" t="n">
         <v>12</v>
       </c>
-      <c r="J472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>12</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16133,7 +16075,9 @@
       <c r="I473" t="n">
         <v>12</v>
       </c>
-      <c r="J473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>12</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16172,7 +16116,9 @@
       <c r="I474" t="n">
         <v>12</v>
       </c>
-      <c r="J474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>12</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16211,7 +16157,9 @@
       <c r="I475" t="n">
         <v>12</v>
       </c>
-      <c r="J475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>12</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16250,7 +16198,9 @@
       <c r="I476" t="n">
         <v>12</v>
       </c>
-      <c r="J476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>12</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16289,7 +16239,9 @@
       <c r="I477" t="n">
         <v>11.9</v>
       </c>
-      <c r="J477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>12</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16328,7 +16280,9 @@
       <c r="I478" t="n">
         <v>12</v>
       </c>
-      <c r="J478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>12</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16367,7 +16321,9 @@
       <c r="I479" t="n">
         <v>12.1</v>
       </c>
-      <c r="J479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>12</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16406,7 +16362,9 @@
       <c r="I480" t="n">
         <v>12.1</v>
       </c>
-      <c r="J480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>12</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16445,7 +16403,9 @@
       <c r="I481" t="n">
         <v>12.1</v>
       </c>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>12</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16479,10 +16439,14 @@
         <v>-886903.4587483809</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J482" t="n">
+        <v>12</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16516,10 +16480,14 @@
         <v>-974653.3767483809</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J483" t="n">
+        <v>12</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
